--- a/production/watch-dk-PRELIMINARY/Manufacturing/Assembly/ZSWatch-Watch-DevKit-bom.xlsx
+++ b/production/watch-dk-PRELIMINARY/Manufacturing/Assembly/ZSWatch-Watch-DevKit-bom.xlsx
@@ -1094,7 +1094,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>9.0.6+1</t>
+    <t>9.0.7+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1271,7 +1271,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2025-12-31 09:57:20</t>
+    <t>2026-02-19 10:55:35</t>
   </si>
   <si>
     <t>KiCost® v1.1.20 + KiBot v1.8.5</t>

--- a/production/watch-dk-PRELIMINARY/Manufacturing/Assembly/ZSWatch-Watch-DevKit-bom.xlsx
+++ b/production/watch-dk-PRELIMINARY/Manufacturing/Assembly/ZSWatch-Watch-DevKit-bom.xlsx
@@ -16,6 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
     <definedName name="PURCHASE_DESCRIPTION" localSheetId="1">'Costs'!$H$62</definedName>
     <definedName name="TotalCost" localSheetId="1">'Costs'!$H$4</definedName>
+    <definedName name="USD_EUR" localSheetId="1">'Costs'!$C$61</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -247,6 +248,2157 @@
         </r>
       </text>
     </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>137684 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.10      €0.10
+    10   €0.03      €0.28
+   100   €0.02      €1.60
+   500   €0.01      €6.00
+  1000   €0.01     €10.00
+  2500   €0.01     €22.50
+  5000   €0.01     €40.00
+ 10000   €0.01     €70.00
+ 50000   €0.01    €350.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Kondensator aus mehreren Keramikschichten MLCC - SMD/SMT KGM05AR71A104KN NEW GLOBAL PN 10V .1uF X A 581-KGM05AR71A104KN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13143 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.32      €0.32
+    10   €0.21      €2.06
+   100   €0.13     €12.90
+   500   €0.10     €52.00
+  1000   €0.10     €95.00
+  2500   €0.09    €222.50
+  5000   €0.08    €395.00
+ 10000   €0.07    €740.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Kondensator aus mehreren Keramikschichten MLCC - SMD/SMT KGM05AR71E224KH NW G LOB PN 25V 0.22uF X7 A 581-KGM05AR71E224KH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>119113 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.15      €0.15
+    10   €0.07      €0.65
+    50   €0.05      €2.35
+   100   €0.04      €3.70
+   500   €0.03     €14.50
+  1000   €0.02     €23.00
+  2000   €0.02     €42.00
+  5000   €0.02     €95.00
+ 10000   €0.02    €160.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Kondensator aus mehreren Keramikschichten MLCC - SMD/SMT KGM05AR51E105KH NEW GLOBAL PN 25V 1uF X5 A 581-KGM05AR51E105KH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>14420 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.11      €0.11
+    10   €0.05      €0.49
+    50   €0.04      €1.75
+   100   €0.03      €2.80
+   500   €0.02     €11.00
+  1000   €0.02     €18.00
+  2000   €0.01     €30.00
+ 10000   €0.01    €130.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Kondensator aus mehreren Keramikschichten MLCC - SMD/SMT KGM05AR51A225MH NEW GLOBAL PN 10V 2.2uF A 581-KGM05AR51A225MH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.15      €0.15
+    10   €0.11      €1.07
+   100   €0.06      €5.50
+   500   €0.04     €22.00
+  1000   €0.04     €39.00
+  2000   €0.04     €70.00
+  4000   €0.03    €124.00
+  8000   €0.03    €232.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Kondensator aus mehreren Keramikschichten MLCC - SMD/SMT 6.3V 10uF X5R 0603 2 0%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>90351 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.52      €0.52
+    10   €0.36      €3.58
+   100   €0.26     €25.90
+   500   €0.21    €107.00
+  1000   €0.20    €200.00
+  2000   €0.17    €340.00
+ 10000   €0.16  €1,570.00
+ 50000   €0.15  €7,500.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Einfarbige LEDs leds Green Water Clear 574nm 45mcd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>90351 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.52      €0.52
+    10   €0.36      €3.58
+   100   €0.26     €25.90
+   500   €0.21    €107.00
+  1000   €0.20    €200.00
+  2000   €0.17    €340.00
+ 10000   €0.16  €1,570.00
+ 50000   €0.15  €7,500.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Einfarbige LEDs leds Green Water Clear 574nm 45mcd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>90351 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.52      €0.52
+    10   €0.36      €3.58
+   100   €0.26     €25.90
+   500   €0.21    €107.00
+  1000   €0.20    €200.00
+  2000   €0.17    €340.00
+ 10000   €0.16  €1,570.00
+ 50000   €0.15  €7,500.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Einfarbige LEDs leds Green Water Clear 574nm 45mcd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>49005 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.84      €0.84
+    10   €0.71      €7.12
+   100   €0.68     €67.90
+   500   €0.62    €309.00
+  1000   €0.59    €595.00
+  2500   €0.57  €1,417.50
+  5000   €0.54  €2,690.00
+ 10000   €0.52  €5,190.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sensoren für Umgebungslicht Digital Ambient Light Sensor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3646 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €3.21      €3.21
+     5   €2.87     €14.35
+    10   €2.75     €27.50
+    25   €2.60     €65.00
+    50   €2.49    €124.50
+   100   €2.40    €240.00
+   500   €2.21  €1,105.00
+  1000   €2.16  €2,160.00
+  2500   €2.00  €5,000.00
+  5000   €2.00 €10,000.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: IMUs - Inertiale Messeinheiten Smart Ultra-Low Power Inertial Measurement Unit (IMU) for Wearable Applications</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3148 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €2.56      €2.56
+     5   €2.29     €11.45
+    10   €2.06     €20.60
+    50   €1.98     €99.00
+   100   €1.90    €190.00
+   500   €1.74    €870.00
+  1000   €1.68  €1,680.00
+  2000   €1.64  €3,280.00
+  5000   €1.57  €7,850.00
+ 10000   €1.57 €15,700.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Drucksensoren für Plattenmontage The BMP581 is a very small, low-power and low-noise 24-bit absolute barometric pressure sensor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>709 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.39      €1.39
+    10   €1.02     €10.20
+    25   €0.93     €23.23
+   100   €0.83     €82.60
+   250   €0.78    €194.25
+   500   €0.73    €366.00
+  1000   €0.71    €706.00
+  2500   €0.70  €1,740.00
+  5000   €0.67  €3,335.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Motor / Bewegung / Zündungscontroller und Treiber Haptic Driver w/Auto Resonance Tracking A 595-DRV2603RUNR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7331 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.56      €0.56
+    10   €0.40      €3.96
+    25   €0.35      €8.88
+   100   €0.31     €31.00
+   250   €0.29     €72.25
+   500   €0.28    €138.00
+  1000   €0.27    €265.00
+  3000   €0.25    €741.00
+  6000   €0.24  €1,446.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Driver ICs LED-Beleuchtungstreiber 2Ch Linear LED Drvr w/Sngl Wire Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €2.19      €2.19
+     5   €1.85      €9.25
+    10   €1.72     €17.20
+    50   €1.44     €72.00
+   100   €1.34    €134.00
+   500   €1.14    €570.00
+  1000   €1.08  €1,080.00
+  2000   €1.02  €2,040.00
+  5000   €0.99  €4,945.00
+ 10000   €0.99  €9,890.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Halleffekt-/Magnetsensoren für Plattenmontage Digital output magnetic sensor: ultralow-power, high-performance 3-axis magnetom</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Keine</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+  4800   €5.62 €26,976.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: NOR-Flash Serial NOR 1.8V 512Mbit x4 I/O WSON-8 8x6mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7162 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.93      €0.93
+    10   €0.67      €6.70
+    25   €0.60     €15.12
+   100   €0.53     €53.30
+   250   €0.50    €124.75
+   500   €0.47    €235.00
+  1000   €0.46    €455.00
+  4000   €0.41  €1,660.00
+  8000   €0.41  €3,280.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Übersetzungsspannungs-Pegel 5.8ns 5.5V 250mW OD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4843 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.60      €0.60
+    10   €0.42      €4.24
+    25   €0.38      €9.53
+   100   €0.33     €33.30
+   250   €0.31     €77.50
+   500   €0.30    €148.00
+  1000   €0.28    €277.00
+  6000   €0.26  €1,578.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Übersetzungsspannungs-Pegel Dual Supply bidirectional I2C-bus and SMBus voltage-level translator</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>190 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.80      €1.80
+    10   €1.32     €13.20
+    25   €1.20     €30.00
+   100   €1.06    €106.00
+   500   €1.03    €515.00
+  1000   €0.89    €887.00
+  4000   €0.84  €3,344.00
+  8000   €0.81  €6,488.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Echtzeituhr 32.768kHz I2C 20ppm 2.0x1.2x0.7 AEC-Q200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>77385 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.38      €0.38
+    10   €0.26      €2.56
+   100   €0.17     €17.40
+   500   €0.14     €68.00
+  1000   €0.12    €121.00
+  3000   €0.09    €261.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: ESD-Schutzdioden / TVS-Dioden High Speed Interface Protection Low Cap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3589 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.32      €1.32
+   100   €1.23    €123.00
+  1500   €1.23  €1,845.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Batterie-Management PMIC with battery charger 32-800mA, fuel gauge, 2x Buck, 2x LDO/LS, 5x GPIO, 3x LED drivers, TWI &amp; system features</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>61104 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.27      €0.27
+    50   €0.25     €12.30
+   100   €0.23     €22.60
+   500   €0.21    €103.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Leiterplatten-Befestigungsmaterial - PCB WR-PHD 2.54mm Jumper with Test Point</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4740 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.20      €0.20
+    10   €0.17      €1.66
+   100   €0.14     €13.80
+  1000   €0.11    €113.00
+  3000   €0.10    €306.00
+  6000   €0.09    €558.00
+  9000   €0.09    €801.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Leistungsinduktivitäten – SMD 2.2  UH  20%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2577 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €7.83      €7.83
+    10   €7.67     €76.70
+   500   €7.67  €3,835.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Bluetooth-Module – 802.15.1 nRF5340, PCB antenna, open CPU</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12260 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.63      €1.63
+    10   €1.28     €12.80
+    25   €1.16     €29.00
+    50   €1.08     €54.00
+   100   €1.01    €101.00
+   250   €0.94    €234.25
+   500   €0.89    €447.00
+  1000   €0.87    €869.00
+  2500   €0.79  €1,975.00
+  5700   €0.79  €4,503.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: MEMS-Mikrofone SISONIC MEMS MICROPHONE;Digital;Top;64.5dB SNR;120dB SPL;-26 +/-1dBV;35Hz;70dB PSRR;Low Power: 230 / Standard: 630;1.8V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.27      €0.27
+    10   €0.16      €1.64
+   100   €0.10     €10.30
+   500   €0.08     €38.50
+  1000   €0.06     €60.00
+  2500   €0.06    €145.00
+  5000   €0.05    €255.00
+ 10000   €0.04    €420.00
+ 20000   €0.04    €800.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: MOSFETs SOT883   N-CH  30V .59A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>549 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.33      €0.33
+    10   €0.21      €2.13
+   100   €0.13     €13.40
+   500   €0.09     €46.50
+  1000   €0.07     €65.00
+  5000   €0.06    €280.00
+ 10000   €0.05    €460.00
+ 20000   €0.04    €880.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: MOSFETs SOT883   P-CH  30V  1A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>58195 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.12      €0.12
+    10   €0.02      €0.19
+   100   €0.01      €0.90
+   250   €0.01      €2.00
+   500   €0.01      €3.50
+  1000   €0.01      €5.00
+  5000   €0.00     €15.00
+ 25000   €0.00     €50.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD 0ohm 5%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>263421 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.01      €0.06
+   100   €0.00      €0.30
+ 10000   €0.00     €10.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 560Ohms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>152031 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.01      €0.06
+   100   €0.00      €0.40
+  1000   €0.00      €3.00
+ 10000   €0.00     €20.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 1.8kOhms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1102854 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.01      €0.06
+   100   €0.01      €0.50
+  1000   €0.00      €3.00
+ 10000   €0.00     €10.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 3.3kOhms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>111624 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.01      €0.06
+   100   €0.00      €0.30
+ 10000   €0.00     €10.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 12kOhms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1441673 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.00      €0.03
+ 10000   €0.00     €10.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 47kOhms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4336570 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.00      €0.03
+ 10000   €0.00     €10.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 100kOhms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>407165 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.09      €0.09
+    10   €0.01      €0.09
+   100   €0.01      €0.80
+  5000   €0.00     €15.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0805, 100kOhms, 1%, 1/8W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>85713 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.10      €0.10
+    10   €0.01      €0.05
+   100   €0.00      €0.40
+ 10000   €0.00     €30.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Dickfilmwiderstände - SMD General Purpose Chip Resistor 0402, 200kOhms, 1%, 1/16W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5724 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.46      €0.46
+    10   €0.45      €4.52
+    50   €0.42     €21.00
+   100   €0.38     €38.20
+   500   €0.35    €173.50
+  1000   €0.30    €302.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sensorschalter Tact Switch SMT 5.0mm Blk Act.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5724 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.46      €0.46
+    10   €0.45      €4.52
+    50   €0.42     €21.00
+   100   €0.38     €38.20
+   500   €0.35    €173.50
+  1000   €0.30    €302.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sensorschalter Tact Switch SMT 5.0mm Blk Act.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5724 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.46      €0.46
+    10   €0.45      €4.52
+    50   €0.42     €21.00
+   100   €0.38     €38.20
+   500   €0.35    €173.50
+  1000   €0.30    €302.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sensorschalter Tact Switch SMT 5.0mm Blk Act.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5724 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.46      €0.46
+    10   €0.45      €4.52
+    50   €0.42     €21.00
+   100   €0.38     €38.20
+   500   €0.35    €173.50
+  1000   €0.30    €302.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sensorschalter Tact Switch SMT 5.0mm Blk Act.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5724 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.46      €0.46
+    10   €0.45      €4.52
+    50   €0.42     €21.00
+   100   €0.38     €38.20
+   500   €0.35    €173.50
+  1000   €0.30    €302.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sensorschalter Tact Switch SMT 5.0mm Blk Act.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>11486 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.16      €0.16
+    10   €0.14      €1.37
+    25   €0.13      €3.30
+   100   €0.11     €10.90
+   250   €0.10     €23.75
+  1000   €0.09     €86.00
+  3000   €0.08    €252.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sockel &amp; Kabelgehäuse 2P STR SR TMT HDR .38 AU .45IN LENGTH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>151277 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.45      €0.45
+    10   €0.38      €3.77
+    25   €0.33      €8.28
+   100   €0.29     €29.30
+   250   €0.26     €65.75
+  1000   €0.21    €215.00
+  2500   €0.17    €435.00
+  4500   €0.17    €742.50
+  9000   €0.16  €1,413.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sockel &amp; Kabelgehäuse 2P WTB VERT HDR PICO EZMATE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>18083 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.21      €0.21
+    10   €0.18      €1.77
+   100   €0.15     €15.10
+   250   €0.13     €33.50
+  1000   €0.13    €126.00
+  3000   €0.12    €372.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Sockel &amp; Kabelgehäuse 3P STR SR TMT HDR .38 AU .45IN LENGTH</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>11268 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.17      €1.17
+    10   €0.99      €9.89
+   100   €0.84     €84.00
+   500   €0.75    €375.00
+  1000   €0.70    €702.00
+  2000   €0.65  €1,296.00
+  5000   €0.63  €3,135.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Platine-zu-Platine &amp; Mezzanine-Steckverbinder 10 Contact 1.27mm keyed Pin hdr SMT Vert GF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21611 Auf Lager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.02      €1.02
+    10   €0.88      €8.77
+    25   €0.78     €19.43
+   100   €0.74     €74.00
+   250   €0.69    €173.50
+   500   €0.66    €330.00
+  1000   €0.59    €593.00
+  2500   €0.56  €1,405.00
+  8000   €0.56  €4,496.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: USB-Stecker USB TYPE C RCPT R/A SMT TOP MOUNT</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G61" authorId="0">
       <text>
         <r>
@@ -291,7 +2443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="384">
   <si>
     <t>Row</t>
   </si>
@@ -1250,6 +3402,126 @@
     <t>Cat#</t>
   </si>
   <si>
+    <t>581-0402ZC104KAT4A</t>
+  </si>
+  <si>
+    <t>581-04023C224KAT2A</t>
+  </si>
+  <si>
+    <t>581-04023D105KAT2A</t>
+  </si>
+  <si>
+    <t>581-0402ZD225MAT2A</t>
+  </si>
+  <si>
+    <t>581-KGM15CR50J106MT</t>
+  </si>
+  <si>
+    <t>NonStk</t>
+  </si>
+  <si>
+    <t>696-SML-LX0402SUGCTR</t>
+  </si>
+  <si>
+    <t>630-APDS-9306-065</t>
+  </si>
+  <si>
+    <t>262-BMI270</t>
+  </si>
+  <si>
+    <t>262-BMP581</t>
+  </si>
+  <si>
+    <t>595-DRV2603RUNT</t>
+  </si>
+  <si>
+    <t>512-FAN5622SX</t>
+  </si>
+  <si>
+    <t>511-LIS2MDLTR</t>
+  </si>
+  <si>
+    <t>95-25U51245GZ4I00T</t>
+  </si>
+  <si>
+    <t>771-NTS0104GU12115</t>
+  </si>
+  <si>
+    <t>771-PCA9306JKZ</t>
+  </si>
+  <si>
+    <t>428-204291-MC01</t>
+  </si>
+  <si>
+    <t>511-USBLC6-2P6</t>
+  </si>
+  <si>
+    <t>949-NPM1300-QEAA-R7</t>
+  </si>
+  <si>
+    <t>710-60900213421</t>
+  </si>
+  <si>
+    <t>815-ASMPH-0806-2R2MT</t>
+  </si>
+  <si>
+    <t>377-NORA-B106-00B</t>
+  </si>
+  <si>
+    <t>721-SPK0641HT4H-1</t>
+  </si>
+  <si>
+    <t>771-PMZ550UNEYL</t>
+  </si>
+  <si>
+    <t>771-PMZB320UPEYL</t>
+  </si>
+  <si>
+    <t>652-CR0805-J/-000ELF</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-07560RL</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-071K8L</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-073K3L</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-0712KL</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-0747KL</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t>603-RC0402FR-07200KL</t>
+  </si>
+  <si>
+    <t>710-430182050816</t>
+  </si>
+  <si>
+    <t>649-77311-818-02LF</t>
+  </si>
+  <si>
+    <t>538-78171-0002</t>
+  </si>
+  <si>
+    <t>649-77311-818-03LF</t>
+  </si>
+  <si>
+    <t>640-BD12510A305580LB</t>
+  </si>
+  <si>
+    <t>523-12401610E4#2A</t>
+  </si>
+  <si>
     <t>Buy here</t>
   </si>
   <si>
@@ -1259,6 +3531,9 @@
     <t>Purchase description:</t>
   </si>
   <si>
+    <t>USD($)/EUR(€):</t>
+  </si>
+  <si>
     <t>Board Qty:</t>
   </si>
   <si>
@@ -1271,7 +3546,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2026-02-19 10:55:35</t>
+    <t>2026-02-19 11:29:11</t>
   </si>
   <si>
     <t>KiCost® v1.1.20 + KiBot v1.8.5</t>
@@ -1411,6 +3686,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF909090"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1434,13 +3716,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF909090"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1579,7 +3854,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1655,41 +3930,68 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4040"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6060"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1704,16 +4006,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3525,7 +5817,7 @@
     <col min="11" max="11" width="10.7109375" customWidth="1" outlineLevel="2"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
@@ -3548,7 +5840,7 @@
         <v>260</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="H2" s="13">
         <v>1</v>
@@ -3562,11 +5854,11 @@
         <v>262</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="H3" s="15">
         <f>TotalCost/BoardQty</f>
-        <v>0.0</v>
+        <v>50.5225</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3577,19 +5869,19 @@
         <v>60</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="H4" s="16">
         <f>SUM(H10:H59)</f>
-        <v>0</v>
+        <v>50.5225</v>
       </c>
       <c r="M4" s="16">
         <f>SUM(M10:M59)</f>
-        <v>0</v>
+        <v>50.5225</v>
       </c>
       <c r="N4" s="17" t="str">
         <f>(COUNTA(M10:M59)&amp;" of "&amp;ROWS(M10:M59)&amp;" parts found")</f>
-        <v>0 of 50 parts found</v>
+        <v>45 of 50 parts found</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3694,11 +5986,29 @@
       </c>
       <c r="G10" s="22">
         <f>IF(MIN(K10)&lt;&gt;0,MIN(K10),"")</f>
-        <v/>
+        <v>0.033166</v>
       </c>
       <c r="H10" s="23">
         <f>IF(AND(ISNUMBER(F10),ISNUMBER(G10)),F10*G10,"")</f>
-        <v/>
+        <v>0.4312</v>
+      </c>
+      <c r="I10" s="21">
+        <v>137684</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22">
+        <f>IFERROR(IF(OR(J10&gt;=L10,F10&gt;=L10),USD_EUR*LOOKUP(IF(J10="",F10,J10),{0,1,10,100,500,1000,2500,5000,10000,50000},{0.0,0.095,0.028,0.016,0.012,0.01,0.009,0.008,0.007,0.007}),"MOQ="&amp;L10),"")</f>
+        <v>0.033166</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="23">
+        <f>IFERROR(IF(J10="",F10,J10)*K10,"")</f>
+        <v>0.4312</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3723,11 +6033,29 @@
       </c>
       <c r="G11" s="22">
         <f>IF(MIN(K11)&lt;&gt;0,MIN(K11),"")</f>
-        <v/>
+        <v>0.37667100000000003</v>
       </c>
       <c r="H11" s="23">
         <f>IF(AND(ISNUMBER(F11),ISNUMBER(G11)),F11*G11,"")</f>
-        <v/>
+        <v>0.3767</v>
+      </c>
+      <c r="I11" s="21">
+        <v>13143</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22">
+        <f>IFERROR(IF(OR(J11&gt;=L11,F11&gt;=L11),USD_EUR*LOOKUP(IF(J11="",F11,J11),{0,1,10,100,500,1000,2500,5000,10000},{0.0,0.318,0.206,0.129,0.104,0.095,0.089,0.079,0.074}),"MOQ="&amp;L11),"")</f>
+        <v>0.37667100000000003</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="23">
+        <f>IFERROR(IF(J11="",F11,J11)*K11,"")</f>
+        <v>0.3767</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3752,11 +6080,29 @@
       </c>
       <c r="G12" s="22">
         <f>IF(MIN(K12)&lt;&gt;0,MIN(K12),"")</f>
-        <v/>
+        <v>0.18359750000000002</v>
       </c>
       <c r="H12" s="23">
         <f>IF(AND(ISNUMBER(F12),ISNUMBER(G12)),F12*G12,"")</f>
-        <v/>
+        <v>0.5508</v>
+      </c>
+      <c r="I12" s="21">
+        <v>119113</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22">
+        <f>IFERROR(IF(OR(J12&gt;=L12,F12&gt;=L12),USD_EUR*LOOKUP(IF(J12="",F12,J12),{0,1,10,50,100,500,1000,2000,5000,10000},{0.0,0.155,0.065,0.047,0.037,0.029,0.023,0.021,0.019,0.016}),"MOQ="&amp;L12),"")</f>
+        <v>0.18359750000000002</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1</v>
+      </c>
+      <c r="M12" s="23">
+        <f>IFERROR(IF(J12="",F12,J12)*K12,"")</f>
+        <v>0.5508</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3781,11 +6127,29 @@
       </c>
       <c r="G13" s="22">
         <f>IF(MIN(K13)&lt;&gt;0,MIN(K13),"")</f>
-        <v/>
+        <v>0.132664</v>
       </c>
       <c r="H13" s="23">
         <f>IF(AND(ISNUMBER(F13),ISNUMBER(G13)),F13*G13,"")</f>
-        <v/>
+        <v>0.1327</v>
+      </c>
+      <c r="I13" s="21">
+        <v>14420</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22">
+        <f>IFERROR(IF(OR(J13&gt;=L13,F13&gt;=L13),USD_EUR*LOOKUP(IF(J13="",F13,J13),{0,1,10,50,100,500,1000,2000,10000},{0.0,0.112,0.049,0.035,0.028,0.022,0.018,0.015,0.013}),"MOQ="&amp;L13),"")</f>
+        <v>0.132664</v>
+      </c>
+      <c r="L13" s="21">
+        <v>1</v>
+      </c>
+      <c r="M13" s="23">
+        <f>IFERROR(IF(J13="",F13,J13)*K13,"")</f>
+        <v>0.1327</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3839,11 +6203,29 @@
       </c>
       <c r="G15" s="22">
         <f>IF(MIN(K15)&lt;&gt;0,MIN(K15),"")</f>
-        <v/>
+        <v>0.18359750000000002</v>
       </c>
       <c r="H15" s="23">
         <f>IF(AND(ISNUMBER(F15),ISNUMBER(G15)),F15*G15,"")</f>
-        <v/>
+        <v>0.5508</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22">
+        <f>IFERROR(IF(OR(J15&gt;=L15,F15&gt;=L15),USD_EUR*LOOKUP(IF(J15="",F15,J15),{0,1,10,100,500,1000,2000,4000,8000},{0.0,0.155,0.107,0.055,0.044,0.039,0.035,0.031,0.029}),"MOQ="&amp;L15),"")</f>
+        <v>0.18359750000000002</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1</v>
+      </c>
+      <c r="M15" s="23">
+        <f>IFERROR(IF(J15="",F15,J15)*K15,"")</f>
+        <v>0.5508</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3868,14 +6250,32 @@
       </c>
       <c r="G16" s="22">
         <f>IF(MIN(K16)&lt;&gt;0,MIN(K16),"")</f>
-        <v/>
+        <v>0.611202</v>
       </c>
       <c r="H16" s="23">
         <f>IF(AND(ISNUMBER(F16),ISNUMBER(G16)),F16*G16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.6112</v>
+      </c>
+      <c r="I16" s="21">
+        <v>90351</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22">
+        <f>IFERROR(IF(OR(J16&gt;=L16,F16&gt;=L16),USD_EUR*LOOKUP(IF(J16="",F16,J16),{0,1,10,100,500,1000,2000,10000,50000},{0.0,0.516,0.358,0.259,0.214,0.2,0.17,0.157,0.15}),"MOQ="&amp;L16),"")</f>
+        <v>0.611202</v>
+      </c>
+      <c r="L16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16" s="23">
+        <f>IFERROR(IF(J16="",F16,J16)*K16,"")</f>
+        <v>0.6112</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="21" t="s">
         <v>44</v>
       </c>
@@ -3897,14 +6297,32 @@
       </c>
       <c r="G17" s="22">
         <f>IF(MIN(K17)&lt;&gt;0,MIN(K17),"")</f>
-        <v/>
+        <v>0.611202</v>
       </c>
       <c r="H17" s="23">
         <f>IF(AND(ISNUMBER(F17),ISNUMBER(G17)),F17*G17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.6112</v>
+      </c>
+      <c r="I17" s="21">
+        <v>90351</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22">
+        <f>IFERROR(IF(OR(J17&gt;=L17,F17&gt;=L17),USD_EUR*LOOKUP(IF(J17="",F17,J17),{0,1,10,100,500,1000,2000,10000,50000},{0.0,0.516,0.358,0.259,0.214,0.2,0.17,0.157,0.15}),"MOQ="&amp;L17),"")</f>
+        <v>0.611202</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="23">
+        <f>IFERROR(IF(J17="",F17,J17)*K17,"")</f>
+        <v>0.6112</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="21" t="s">
         <v>46</v>
       </c>
@@ -3926,14 +6344,32 @@
       </c>
       <c r="G18" s="22">
         <f>IF(MIN(K18)&lt;&gt;0,MIN(K18),"")</f>
-        <v/>
+        <v>0.611202</v>
       </c>
       <c r="H18" s="23">
         <f>IF(AND(ISNUMBER(F18),ISNUMBER(G18)),F18*G18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.6112</v>
+      </c>
+      <c r="I18" s="21">
+        <v>90351</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22">
+        <f>IFERROR(IF(OR(J18&gt;=L18,F18&gt;=L18),USD_EUR*LOOKUP(IF(J18="",F18,J18),{0,1,10,100,500,1000,2000,10000,50000},{0.0,0.516,0.358,0.259,0.214,0.2,0.17,0.157,0.15}),"MOQ="&amp;L18),"")</f>
+        <v>0.611202</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18" s="23">
+        <f>IFERROR(IF(J18="",F18,J18)*K18,"")</f>
+        <v>0.6112</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="21" t="s">
         <v>48</v>
       </c>
@@ -3955,14 +6391,32 @@
       </c>
       <c r="G19" s="22">
         <f>IF(MIN(K19)&lt;&gt;0,MIN(K19),"")</f>
-        <v/>
+        <v>0.9985335000000001</v>
       </c>
       <c r="H19" s="23">
         <f>IF(AND(ISNUMBER(F19),ISNUMBER(G19)),F19*G19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.9985</v>
+      </c>
+      <c r="I19" s="21">
+        <v>49005</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22">
+        <f>IFERROR(IF(OR(J19&gt;=L19,F19&gt;=L19),USD_EUR*LOOKUP(IF(J19="",F19,J19),{0,1,10,100,500,1000,2500,5000,10000},{0.0,0.843,0.712,0.679,0.618,0.595,0.567,0.538,0.519}),"MOQ="&amp;L19),"")</f>
+        <v>0.9985335000000001</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19" s="23">
+        <f>IFERROR(IF(J19="",F19,J19)*K19,"")</f>
+        <v>0.9985</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="21" t="s">
         <v>55</v>
       </c>
@@ -3984,14 +6438,32 @@
       </c>
       <c r="G20" s="22">
         <f>IF(MIN(K20)&lt;&gt;0,MIN(K20),"")</f>
-        <v/>
+        <v>3.802245</v>
       </c>
       <c r="H20" s="23">
         <f>IF(AND(ISNUMBER(F20),ISNUMBER(G20)),F20*G20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>3.8022</v>
+      </c>
+      <c r="I20" s="21">
+        <v>3646</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22">
+        <f>IFERROR(IF(OR(J20&gt;=L20,F20&gt;=L20),USD_EUR*LOOKUP(IF(J20="",F20,J20),{0,1,5,10,25,50,100,500,1000,2500,5000},{0.0,3.21,2.87,2.75,2.6,2.49,2.4,2.21,2.16,2.0,2.0}),"MOQ="&amp;L20),"")</f>
+        <v>3.802245</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20" s="23">
+        <f>IFERROR(IF(J20="",F20,J20)*K20,"")</f>
+        <v>3.8022</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="21" t="s">
         <v>62</v>
       </c>
@@ -4013,14 +6485,32 @@
       </c>
       <c r="G21" s="22">
         <f>IF(MIN(K21)&lt;&gt;0,MIN(K21),"")</f>
-        <v/>
+        <v>3.0323200000000003</v>
       </c>
       <c r="H21" s="23">
         <f>IF(AND(ISNUMBER(F21),ISNUMBER(G21)),F21*G21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>3.0323</v>
+      </c>
+      <c r="I21" s="21">
+        <v>3148</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22">
+        <f>IFERROR(IF(OR(J21&gt;=L21,F21&gt;=L21),USD_EUR*LOOKUP(IF(J21="",F21,J21),{0,1,5,10,50,100,500,1000,2000,5000,10000},{0.0,2.56,2.29,2.06,1.98,1.9,1.74,1.68,1.64,1.57,1.57}),"MOQ="&amp;L21),"")</f>
+        <v>3.0323200000000003</v>
+      </c>
+      <c r="L21" s="21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="23">
+        <f>IFERROR(IF(J21="",F21,J21)*K21,"")</f>
+        <v>3.0323</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="21" t="s">
         <v>66</v>
       </c>
@@ -4042,14 +6532,32 @@
       </c>
       <c r="G22" s="22">
         <f>IF(MIN(K22)&lt;&gt;0,MIN(K22),"")</f>
-        <v/>
+        <v>1.646455</v>
       </c>
       <c r="H22" s="23">
         <f>IF(AND(ISNUMBER(F22),ISNUMBER(G22)),F22*G22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>1.6465</v>
+      </c>
+      <c r="I22" s="21">
+        <v>709</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22">
+        <f>IFERROR(IF(OR(J22&gt;=L22,F22&gt;=L22),USD_EUR*LOOKUP(IF(J22="",F22,J22),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,1.39,1.02,0.929,0.826,0.777,0.732,0.706,0.696,0.667}),"MOQ="&amp;L22),"")</f>
+        <v>1.646455</v>
+      </c>
+      <c r="L22" s="21">
+        <v>1</v>
+      </c>
+      <c r="M22" s="23">
+        <f>IFERROR(IF(J22="",F22,J22)*K22,"")</f>
+        <v>1.6465</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="21" t="s">
         <v>72</v>
       </c>
@@ -4071,14 +6579,32 @@
       </c>
       <c r="G23" s="22">
         <f>IF(MIN(K23)&lt;&gt;0,MIN(K23),"")</f>
-        <v/>
+        <v>0.6621355000000001</v>
       </c>
       <c r="H23" s="23">
         <f>IF(AND(ISNUMBER(F23),ISNUMBER(G23)),F23*G23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.6621</v>
+      </c>
+      <c r="I23" s="21">
+        <v>7331</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22">
+        <f>IFERROR(IF(OR(J23&gt;=L23,F23&gt;=L23),USD_EUR*LOOKUP(IF(J23="",F23,J23),{0,1,10,25,100,250,500,1000,3000,6000},{0.0,0.559,0.396,0.355,0.31,0.289,0.276,0.265,0.247,0.241}),"MOQ="&amp;L23),"")</f>
+        <v>0.6621355000000001</v>
+      </c>
+      <c r="L23" s="21">
+        <v>1</v>
+      </c>
+      <c r="M23" s="23">
+        <f>IFERROR(IF(J23="",F23,J23)*K23,"")</f>
+        <v>0.6621</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="21" t="s">
         <v>78</v>
       </c>
@@ -4100,14 +6626,32 @@
       </c>
       <c r="G24" s="22">
         <f>IF(MIN(K24)&lt;&gt;0,MIN(K24),"")</f>
-        <v/>
+        <v>2.594055</v>
       </c>
       <c r="H24" s="23">
         <f>IF(AND(ISNUMBER(F24),ISNUMBER(G24)),F24*G24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2.5941</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22">
+        <f>IFERROR(IF(OR(J24&gt;=L24,F24&gt;=L24),USD_EUR*LOOKUP(IF(J24="",F24,J24),{0,1,5,10,50,100,500,1000,2000,5000,10000},{0.0,2.19,1.85,1.72,1.44,1.34,1.14,1.08,1.02,0.989,0.989}),"MOQ="&amp;L24),"")</f>
+        <v>2.594055</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="23">
+        <f>IFERROR(IF(J24="",F24,J24)*K24,"")</f>
+        <v>2.5941</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="21" t="s">
         <v>84</v>
       </c>
@@ -4135,8 +6679,26 @@
         <f>IF(AND(ISNUMBER(F25),ISNUMBER(G25)),F25*G25,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22">
+        <f>IFERROR(IF(OR(J25&gt;=L25,F25&gt;=L25),USD_EUR*LOOKUP(IF(J25="",F25,J25),{0,1,4800},{0.0,5.62,5.62}),"MOQ="&amp;L25),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="21">
+        <v>4800</v>
+      </c>
+      <c r="M25" s="23">
+        <f>IFERROR(IF(J25="",F25,J25)*K25,"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="21" t="s">
         <v>90</v>
       </c>
@@ -4158,14 +6720,32 @@
       </c>
       <c r="G26" s="22">
         <f>IF(MIN(K26)&lt;&gt;0,MIN(K26),"")</f>
-        <v/>
+        <v>1.1004005000000001</v>
       </c>
       <c r="H26" s="23">
         <f>IF(AND(ISNUMBER(F26),ISNUMBER(G26)),F26*G26,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>1.1004</v>
+      </c>
+      <c r="I26" s="21">
+        <v>7162</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22">
+        <f>IFERROR(IF(OR(J26&gt;=L26,F26&gt;=L26),USD_EUR*LOOKUP(IF(J26="",F26,J26),{0,1,10,25,100,250,500,1000,4000,8000},{0.0,0.929,0.67,0.605,0.533,0.499,0.47,0.455,0.415,0.41}),"MOQ="&amp;L26),"")</f>
+        <v>1.1004005000000001</v>
+      </c>
+      <c r="L26" s="21">
+        <v>1</v>
+      </c>
+      <c r="M26" s="23">
+        <f>IFERROR(IF(J26="",F26,J26)*K26,"")</f>
+        <v>1.1004</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="21" t="s">
         <v>96</v>
       </c>
@@ -4187,14 +6767,32 @@
       </c>
       <c r="G27" s="22">
         <f>IF(MIN(K27)&lt;&gt;0,MIN(K27),"")</f>
-        <v/>
+        <v>0.7130690000000001</v>
       </c>
       <c r="H27" s="23">
         <f>IF(AND(ISNUMBER(F27),ISNUMBER(G27)),F27*G27,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.7131</v>
+      </c>
+      <c r="I27" s="21">
+        <v>4843</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22">
+        <f>IFERROR(IF(OR(J27&gt;=L27,F27&gt;=L27),USD_EUR*LOOKUP(IF(J27="",F27,J27),{0,1,10,25,100,250,500,1000,6000},{0.0,0.602,0.424,0.381,0.333,0.31,0.296,0.277,0.263}),"MOQ="&amp;L27),"")</f>
+        <v>0.7130690000000001</v>
+      </c>
+      <c r="L27" s="21">
+        <v>1</v>
+      </c>
+      <c r="M27" s="23">
+        <f>IFERROR(IF(J27="",F27,J27)*K27,"")</f>
+        <v>0.7131</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="21" t="s">
         <v>102</v>
       </c>
@@ -4216,14 +6814,32 @@
       </c>
       <c r="G28" s="22">
         <f>IF(MIN(K28)&lt;&gt;0,MIN(K28),"")</f>
-        <v/>
+        <v>2.1321000000000003</v>
       </c>
       <c r="H28" s="23">
         <f>IF(AND(ISNUMBER(F28),ISNUMBER(G28)),F28*G28,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>2.1321</v>
+      </c>
+      <c r="I28" s="21">
+        <v>190</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22">
+        <f>IFERROR(IF(OR(J28&gt;=L28,F28&gt;=L28),USD_EUR*LOOKUP(IF(J28="",F28,J28),{0,1,10,25,100,500,1000,4000,8000},{0.0,1.8,1.32,1.2,1.06,1.03,0.887,0.836,0.811}),"MOQ="&amp;L28),"")</f>
+        <v>2.1321000000000003</v>
+      </c>
+      <c r="L28" s="21">
+        <v>1</v>
+      </c>
+      <c r="M28" s="23">
+        <f>IFERROR(IF(J28="",F28,J28)*K28,"")</f>
+        <v>2.1321</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="21" t="s">
         <v>108</v>
       </c>
@@ -4245,14 +6861,32 @@
       </c>
       <c r="G29" s="22">
         <f>IF(MIN(K29)&lt;&gt;0,MIN(K29),"")</f>
-        <v/>
+        <v>0.44774100000000006</v>
       </c>
       <c r="H29" s="23">
         <f>IF(AND(ISNUMBER(F29),ISNUMBER(G29)),F29*G29,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.4477</v>
+      </c>
+      <c r="I29" s="21">
+        <v>77385</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22">
+        <f>IFERROR(IF(OR(J29&gt;=L29,F29&gt;=L29),USD_EUR*LOOKUP(IF(J29="",F29,J29),{0,1,10,100,500,1000,3000},{0.0,0.378,0.256,0.174,0.136,0.121,0.087}),"MOQ="&amp;L29),"")</f>
+        <v>0.44774100000000006</v>
+      </c>
+      <c r="L29" s="21">
+        <v>1</v>
+      </c>
+      <c r="M29" s="23">
+        <f>IFERROR(IF(J29="",F29,J29)*K29,"")</f>
+        <v>0.4477</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="21" t="s">
         <v>114</v>
       </c>
@@ -4274,14 +6908,32 @@
       </c>
       <c r="G30" s="22">
         <f>IF(MIN(K30)&lt;&gt;0,MIN(K30),"")</f>
-        <v/>
+        <v>1.5635400000000002</v>
       </c>
       <c r="H30" s="23">
         <f>IF(AND(ISNUMBER(F30),ISNUMBER(G30)),F30*G30,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>1.5635</v>
+      </c>
+      <c r="I30" s="21">
+        <v>3589</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22">
+        <f>IFERROR(IF(OR(J30&gt;=L30,F30&gt;=L30),USD_EUR*LOOKUP(IF(J30="",F30,J30),{0,1,100,1500},{0.0,1.32,1.23,1.23}),"MOQ="&amp;L30),"")</f>
+        <v>1.5635400000000002</v>
+      </c>
+      <c r="L30" s="21">
+        <v>1</v>
+      </c>
+      <c r="M30" s="23">
+        <f>IFERROR(IF(J30="",F30,J30)*K30,"")</f>
+        <v>1.5635</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="21" t="s">
         <v>120</v>
       </c>
@@ -4303,14 +6955,32 @@
       </c>
       <c r="G31" s="22">
         <f>IF(MIN(K31)&lt;&gt;0,MIN(K31),"")</f>
-        <v/>
+        <v>0.31626150000000003</v>
       </c>
       <c r="H31" s="23">
         <f>IF(AND(ISNUMBER(F31),ISNUMBER(G31)),F31*G31,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>3.4789</v>
+      </c>
+      <c r="I31" s="21">
+        <v>61104</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22">
+        <f>IFERROR(IF(OR(J31&gt;=L31,F31&gt;=L31),USD_EUR*LOOKUP(IF(J31="",F31,J31),{0,1,50,100,500},{0.0,0.267,0.246,0.226,0.206}),"MOQ="&amp;L31),"")</f>
+        <v>0.31626150000000003</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1</v>
+      </c>
+      <c r="M31" s="23">
+        <f>IFERROR(IF(J31="",F31,J31)*K31,"")</f>
+        <v>3.4789</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="21" t="s">
         <v>126</v>
       </c>
@@ -4332,14 +7002,32 @@
       </c>
       <c r="G32" s="22">
         <f>IF(MIN(K32)&lt;&gt;0,MIN(K32),"")</f>
-        <v/>
+        <v>0.23453100000000004</v>
       </c>
       <c r="H32" s="23">
         <f>IF(AND(ISNUMBER(F32),ISNUMBER(G32)),F32*G32,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.4691</v>
+      </c>
+      <c r="I32" s="21">
+        <v>4740</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22">
+        <f>IFERROR(IF(OR(J32&gt;=L32,F32&gt;=L32),USD_EUR*LOOKUP(IF(J32="",F32,J32),{0,1,10,100,1000,3000,6000,9000},{0.0,0.198,0.166,0.138,0.113,0.102,0.093,0.089}),"MOQ="&amp;L32),"")</f>
+        <v>0.23453100000000004</v>
+      </c>
+      <c r="L32" s="21">
+        <v>1</v>
+      </c>
+      <c r="M32" s="23">
+        <f>IFERROR(IF(J32="",F32,J32)*K32,"")</f>
+        <v>0.4691</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="21" t="s">
         <v>133</v>
       </c>
@@ -4361,14 +7049,32 @@
       </c>
       <c r="G33" s="22">
         <f>IF(MIN(K33)&lt;&gt;0,MIN(K33),"")</f>
-        <v/>
+        <v>9.274635000000002</v>
       </c>
       <c r="H33" s="23">
         <f>IF(AND(ISNUMBER(F33),ISNUMBER(G33)),F33*G33,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>9.2746</v>
+      </c>
+      <c r="I33" s="21">
+        <v>2577</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22">
+        <f>IFERROR(IF(OR(J33&gt;=L33,F33&gt;=L33),USD_EUR*LOOKUP(IF(J33="",F33,J33),{0,1,10,500},{0.0,7.83,7.67,7.67}),"MOQ="&amp;L33),"")</f>
+        <v>9.274635000000002</v>
+      </c>
+      <c r="L33" s="21">
+        <v>1</v>
+      </c>
+      <c r="M33" s="23">
+        <f>IFERROR(IF(J33="",F33,J33)*K33,"")</f>
+        <v>9.2746</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="21" t="s">
         <v>139</v>
       </c>
@@ -4390,14 +7096,32 @@
       </c>
       <c r="G34" s="22">
         <f>IF(MIN(K34)&lt;&gt;0,MIN(K34),"")</f>
-        <v/>
+        <v>1.930735</v>
       </c>
       <c r="H34" s="23">
         <f>IF(AND(ISNUMBER(F34),ISNUMBER(G34)),F34*G34,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>1.9307</v>
+      </c>
+      <c r="I34" s="21">
+        <v>12260</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22">
+        <f>IFERROR(IF(OR(J34&gt;=L34,F34&gt;=L34),USD_EUR*LOOKUP(IF(J34="",F34,J34),{0,1,10,25,50,100,250,500,1000,2500,5700},{0.0,1.63,1.28,1.16,1.08,1.01,0.937,0.894,0.869,0.79,0.79}),"MOQ="&amp;L34),"")</f>
+        <v>1.930735</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1</v>
+      </c>
+      <c r="M34" s="23">
+        <f>IFERROR(IF(J34="",F34,J34)*K34,"")</f>
+        <v>1.9307</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="21" t="s">
         <v>145</v>
       </c>
@@ -4419,14 +7143,32 @@
       </c>
       <c r="G35" s="22">
         <f>IF(MIN(K35)&lt;&gt;0,MIN(K35),"")</f>
-        <v/>
+        <v>0.31626150000000003</v>
       </c>
       <c r="H35" s="23">
         <f>IF(AND(ISNUMBER(F35),ISNUMBER(G35)),F35*G35,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.9488</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22">
+        <f>IFERROR(IF(OR(J35&gt;=L35,F35&gt;=L35),USD_EUR*LOOKUP(IF(J35="",F35,J35),{0,1,10,100,500,1000,2500,5000,10000,20000},{0.0,0.267,0.164,0.103,0.077,0.06,0.058,0.051,0.042,0.04}),"MOQ="&amp;L35),"")</f>
+        <v>0.31626150000000003</v>
+      </c>
+      <c r="L35" s="21">
+        <v>1</v>
+      </c>
+      <c r="M35" s="23">
+        <f>IFERROR(IF(J35="",F35,J35)*K35,"")</f>
+        <v>0.9488</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="21" t="s">
         <v>152</v>
       </c>
@@ -4448,14 +7190,32 @@
       </c>
       <c r="G36" s="22">
         <f>IF(MIN(K36)&lt;&gt;0,MIN(K36),"")</f>
-        <v/>
+        <v>0.38733150000000005</v>
       </c>
       <c r="H36" s="23">
         <f>IF(AND(ISNUMBER(F36),ISNUMBER(G36)),F36*G36,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.3873</v>
+      </c>
+      <c r="I36" s="21">
+        <v>549</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22">
+        <f>IFERROR(IF(OR(J36&gt;=L36,F36&gt;=L36),USD_EUR*LOOKUP(IF(J36="",F36,J36),{0,1,10,100,500,1000,5000,10000,20000},{0.0,0.327,0.213,0.134,0.093,0.065,0.056,0.046,0.044}),"MOQ="&amp;L36),"")</f>
+        <v>0.38733150000000005</v>
+      </c>
+      <c r="L36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="23">
+        <f>IFERROR(IF(J36="",F36,J36)*K36,"")</f>
+        <v>0.3873</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="21" t="s">
         <v>158</v>
       </c>
@@ -4477,14 +7237,32 @@
       </c>
       <c r="G37" s="22">
         <f>IF(MIN(K37)&lt;&gt;0,MIN(K37),"")</f>
-        <v/>
+        <v>0.14214000000000002</v>
       </c>
       <c r="H37" s="23">
         <f>IF(AND(ISNUMBER(F37),ISNUMBER(G37)),F37*G37,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>1.1371</v>
+      </c>
+      <c r="I37" s="21">
+        <v>58195</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22">
+        <f>IFERROR(IF(OR(J37&gt;=L37,F37&gt;=L37),USD_EUR*LOOKUP(IF(J37="",F37,J37),{0,1,10,100,250,500,1000,5000,25000},{0.0,0.12,0.019,0.009,0.008,0.007,0.005,0.003,0.002}),"MOQ="&amp;L37),"")</f>
+        <v>0.14214000000000002</v>
+      </c>
+      <c r="L37" s="21">
+        <v>1</v>
+      </c>
+      <c r="M37" s="23">
+        <f>IFERROR(IF(J37="",F37,J37)*K37,"")</f>
+        <v>1.1371</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="21" t="s">
         <v>165</v>
       </c>
@@ -4506,14 +7284,32 @@
       </c>
       <c r="G38" s="22">
         <f>IF(MIN(K38)&lt;&gt;0,MIN(K38),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H38" s="23">
         <f>IF(AND(ISNUMBER(F38),ISNUMBER(G38)),F38*G38,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.3056</v>
+      </c>
+      <c r="I38" s="21">
+        <v>263421</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22">
+        <f>IFERROR(IF(OR(J38&gt;=L38,F38&gt;=L38),USD_EUR*LOOKUP(IF(J38="",F38,J38),{0,1,10,100,10000},{0.0,0.086,0.006,0.003,0.001}),"MOQ="&amp;L38),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1</v>
+      </c>
+      <c r="M38" s="23">
+        <f>IFERROR(IF(J38="",F38,J38)*K38,"")</f>
+        <v>0.3056</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="21" t="s">
         <v>171</v>
       </c>
@@ -4535,14 +7331,32 @@
       </c>
       <c r="G39" s="22">
         <f>IF(MIN(K39)&lt;&gt;0,MIN(K39),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H39" s="23">
         <f>IF(AND(ISNUMBER(F39),ISNUMBER(G39)),F39*G39,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.2037</v>
+      </c>
+      <c r="I39" s="21">
+        <v>152031</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22">
+        <f>IFERROR(IF(OR(J39&gt;=L39,F39&gt;=L39),USD_EUR*LOOKUP(IF(J39="",F39,J39),{0,1,10,100,1000,10000},{0.0,0.086,0.006,0.004,0.003,0.002}),"MOQ="&amp;L39),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L39" s="21">
+        <v>1</v>
+      </c>
+      <c r="M39" s="23">
+        <f>IFERROR(IF(J39="",F39,J39)*K39,"")</f>
+        <v>0.2037</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="21" t="s">
         <v>174</v>
       </c>
@@ -4564,14 +7378,32 @@
       </c>
       <c r="G40" s="22">
         <f>IF(MIN(K40)&lt;&gt;0,MIN(K40),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H40" s="23">
         <f>IF(AND(ISNUMBER(F40),ISNUMBER(G40)),F40*G40,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.2037</v>
+      </c>
+      <c r="I40" s="21">
+        <v>1102854</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22">
+        <f>IFERROR(IF(OR(J40&gt;=L40,F40&gt;=L40),USD_EUR*LOOKUP(IF(J40="",F40,J40),{0,1,10,100,1000,10000},{0.0,0.086,0.006,0.005,0.003,0.001}),"MOQ="&amp;L40),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L40" s="21">
+        <v>1</v>
+      </c>
+      <c r="M40" s="23">
+        <f>IFERROR(IF(J40="",F40,J40)*K40,"")</f>
+        <v>0.2037</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="21" t="s">
         <v>177</v>
       </c>
@@ -4593,14 +7425,32 @@
       </c>
       <c r="G41" s="22">
         <f>IF(MIN(K41)&lt;&gt;0,MIN(K41),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H41" s="23">
         <f>IF(AND(ISNUMBER(F41),ISNUMBER(G41)),F41*G41,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.1019</v>
+      </c>
+      <c r="I41" s="21">
+        <v>111624</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22">
+        <f>IFERROR(IF(OR(J41&gt;=L41,F41&gt;=L41),USD_EUR*LOOKUP(IF(J41="",F41,J41),{0,1,10,100,10000},{0.0,0.086,0.006,0.003,0.001}),"MOQ="&amp;L41),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L41" s="21">
+        <v>1</v>
+      </c>
+      <c r="M41" s="23">
+        <f>IFERROR(IF(J41="",F41,J41)*K41,"")</f>
+        <v>0.1019</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="21" t="s">
         <v>180</v>
       </c>
@@ -4622,14 +7472,32 @@
       </c>
       <c r="G42" s="22">
         <f>IF(MIN(K42)&lt;&gt;0,MIN(K42),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H42" s="23">
         <f>IF(AND(ISNUMBER(F42),ISNUMBER(G42)),F42*G42,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0.1019</v>
+      </c>
+      <c r="I42" s="21">
+        <v>1441673</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22">
+        <f>IFERROR(IF(OR(J42&gt;=L42,F42&gt;=L42),USD_EUR*LOOKUP(IF(J42="",F42,J42),{0,1,10,10000},{0.0,0.086,0.003,0.001}),"MOQ="&amp;L42),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L42" s="21">
+        <v>1</v>
+      </c>
+      <c r="M42" s="23">
+        <f>IFERROR(IF(J42="",F42,J42)*K42,"")</f>
+        <v>0.1019</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="21" t="s">
         <v>183</v>
       </c>
@@ -4651,14 +7519,32 @@
       </c>
       <c r="G43" s="22">
         <f>IF(MIN(K43)&lt;&gt;0,MIN(K43),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H43" s="23">
         <f>IF(AND(ISNUMBER(F43),ISNUMBER(G43)),F43*G43,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.4075</v>
+      </c>
+      <c r="I43" s="21">
+        <v>4336570</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22">
+        <f>IFERROR(IF(OR(J43&gt;=L43,F43&gt;=L43),USD_EUR*LOOKUP(IF(J43="",F43,J43),{0,1,10,10000},{0.0,0.086,0.003,0.001}),"MOQ="&amp;L43),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L43" s="21">
+        <v>1</v>
+      </c>
+      <c r="M43" s="23">
+        <f>IFERROR(IF(J43="",F43,J43)*K43,"")</f>
+        <v>0.4075</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="21" t="s">
         <v>186</v>
       </c>
@@ -4680,14 +7566,32 @@
       </c>
       <c r="G44" s="22">
         <f>IF(MIN(K44)&lt;&gt;0,MIN(K44),"")</f>
-        <v/>
+        <v>0.101867</v>
       </c>
       <c r="H44" s="23">
         <f>IF(AND(ISNUMBER(F44),ISNUMBER(G44)),F44*G44,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.1019</v>
+      </c>
+      <c r="I44" s="21">
+        <v>407165</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22">
+        <f>IFERROR(IF(OR(J44&gt;=L44,F44&gt;=L44),USD_EUR*LOOKUP(IF(J44="",F44,J44),{0,1,10,100,5000},{0.0,0.086,0.009,0.008,0.003}),"MOQ="&amp;L44),"")</f>
+        <v>0.101867</v>
+      </c>
+      <c r="L44" s="21">
+        <v>1</v>
+      </c>
+      <c r="M44" s="23">
+        <f>IFERROR(IF(J44="",F44,J44)*K44,"")</f>
+        <v>0.1019</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="21" t="s">
         <v>189</v>
       </c>
@@ -4709,14 +7613,32 @@
       </c>
       <c r="G45" s="22">
         <f>IF(MIN(K45)&lt;&gt;0,MIN(K45),"")</f>
-        <v/>
+        <v>0.11252750000000002</v>
       </c>
       <c r="H45" s="23">
         <f>IF(AND(ISNUMBER(F45),ISNUMBER(G45)),F45*G45,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0.1125</v>
+      </c>
+      <c r="I45" s="21">
+        <v>85713</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22">
+        <f>IFERROR(IF(OR(J45&gt;=L45,F45&gt;=L45),USD_EUR*LOOKUP(IF(J45="",F45,J45),{0,1,10,100,10000},{0.0,0.095,0.005,0.004,0.003}),"MOQ="&amp;L45),"")</f>
+        <v>0.11252750000000002</v>
+      </c>
+      <c r="L45" s="21">
+        <v>1</v>
+      </c>
+      <c r="M45" s="23">
+        <f>IFERROR(IF(J45="",F45,J45)*K45,"")</f>
+        <v>0.1125</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="21" t="s">
         <v>192</v>
       </c>
@@ -4738,14 +7660,32 @@
       </c>
       <c r="G46" s="22">
         <f>IF(MIN(K46)&lt;&gt;0,MIN(K46),"")</f>
-        <v/>
+        <v>0.5401320000000001</v>
       </c>
       <c r="H46" s="23">
         <f>IF(AND(ISNUMBER(F46),ISNUMBER(G46)),F46*G46,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.5401</v>
+      </c>
+      <c r="I46" s="21">
+        <v>5724</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22">
+        <f>IFERROR(IF(OR(J46&gt;=L46,F46&gt;=L46),USD_EUR*LOOKUP(IF(J46="",F46,J46),{0,1,10,50,100,500,1000},{0.0,0.456,0.452,0.42,0.382,0.347,0.302}),"MOQ="&amp;L46),"")</f>
+        <v>0.5401320000000001</v>
+      </c>
+      <c r="L46" s="21">
+        <v>1</v>
+      </c>
+      <c r="M46" s="23">
+        <f>IFERROR(IF(J46="",F46,J46)*K46,"")</f>
+        <v>0.5401</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="21" t="s">
         <v>199</v>
       </c>
@@ -4767,14 +7707,32 @@
       </c>
       <c r="G47" s="22">
         <f>IF(MIN(K47)&lt;&gt;0,MIN(K47),"")</f>
-        <v/>
+        <v>0.5401320000000001</v>
       </c>
       <c r="H47" s="23">
         <f>IF(AND(ISNUMBER(F47),ISNUMBER(G47)),F47*G47,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.5401</v>
+      </c>
+      <c r="I47" s="21">
+        <v>5724</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22">
+        <f>IFERROR(IF(OR(J47&gt;=L47,F47&gt;=L47),USD_EUR*LOOKUP(IF(J47="",F47,J47),{0,1,10,50,100,500,1000},{0.0,0.456,0.452,0.42,0.382,0.347,0.302}),"MOQ="&amp;L47),"")</f>
+        <v>0.5401320000000001</v>
+      </c>
+      <c r="L47" s="21">
+        <v>1</v>
+      </c>
+      <c r="M47" s="23">
+        <f>IFERROR(IF(J47="",F47,J47)*K47,"")</f>
+        <v>0.5401</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="21" t="s">
         <v>201</v>
       </c>
@@ -4796,14 +7754,32 @@
       </c>
       <c r="G48" s="22">
         <f>IF(MIN(K48)&lt;&gt;0,MIN(K48),"")</f>
-        <v/>
+        <v>0.5401320000000001</v>
       </c>
       <c r="H48" s="23">
         <f>IF(AND(ISNUMBER(F48),ISNUMBER(G48)),F48*G48,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.5401</v>
+      </c>
+      <c r="I48" s="21">
+        <v>5724</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22">
+        <f>IFERROR(IF(OR(J48&gt;=L48,F48&gt;=L48),USD_EUR*LOOKUP(IF(J48="",F48,J48),{0,1,10,50,100,500,1000},{0.0,0.456,0.452,0.42,0.382,0.347,0.302}),"MOQ="&amp;L48),"")</f>
+        <v>0.5401320000000001</v>
+      </c>
+      <c r="L48" s="21">
+        <v>1</v>
+      </c>
+      <c r="M48" s="23">
+        <f>IFERROR(IF(J48="",F48,J48)*K48,"")</f>
+        <v>0.5401</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="21" t="s">
         <v>203</v>
       </c>
@@ -4825,14 +7801,32 @@
       </c>
       <c r="G49" s="22">
         <f>IF(MIN(K49)&lt;&gt;0,MIN(K49),"")</f>
-        <v/>
+        <v>0.5401320000000001</v>
       </c>
       <c r="H49" s="23">
         <f>IF(AND(ISNUMBER(F49),ISNUMBER(G49)),F49*G49,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.5401</v>
+      </c>
+      <c r="I49" s="21">
+        <v>5724</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22">
+        <f>IFERROR(IF(OR(J49&gt;=L49,F49&gt;=L49),USD_EUR*LOOKUP(IF(J49="",F49,J49),{0,1,10,50,100,500,1000},{0.0,0.456,0.452,0.42,0.382,0.347,0.302}),"MOQ="&amp;L49),"")</f>
+        <v>0.5401320000000001</v>
+      </c>
+      <c r="L49" s="21">
+        <v>1</v>
+      </c>
+      <c r="M49" s="23">
+        <f>IFERROR(IF(J49="",F49,J49)*K49,"")</f>
+        <v>0.5401</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="21" t="s">
         <v>205</v>
       </c>
@@ -4854,14 +7848,32 @@
       </c>
       <c r="G50" s="22">
         <f>IF(MIN(K50)&lt;&gt;0,MIN(K50),"")</f>
-        <v/>
+        <v>0.5401320000000001</v>
       </c>
       <c r="H50" s="23">
         <f>IF(AND(ISNUMBER(F50),ISNUMBER(G50)),F50*G50,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.5401</v>
+      </c>
+      <c r="I50" s="21">
+        <v>5724</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22">
+        <f>IFERROR(IF(OR(J50&gt;=L50,F50&gt;=L50),USD_EUR*LOOKUP(IF(J50="",F50,J50),{0,1,10,50,100,500,1000},{0.0,0.456,0.452,0.42,0.382,0.347,0.302}),"MOQ="&amp;L50),"")</f>
+        <v>0.5401320000000001</v>
+      </c>
+      <c r="L50" s="21">
+        <v>1</v>
+      </c>
+      <c r="M50" s="23">
+        <f>IFERROR(IF(J50="",F50,J50)*K50,"")</f>
+        <v>0.5401</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="21" t="s">
         <v>207</v>
       </c>
@@ -4883,14 +7895,32 @@
       </c>
       <c r="G51" s="22">
         <f>IF(MIN(K51)&lt;&gt;0,MIN(K51),"")</f>
-        <v/>
+        <v>0.16227650000000002</v>
       </c>
       <c r="H51" s="23">
         <f>IF(AND(ISNUMBER(F51),ISNUMBER(G51)),F51*G51,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1.9473</v>
+      </c>
+      <c r="I51" s="21">
+        <v>11486</v>
+      </c>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22">
+        <f>IFERROR(IF(OR(J51&gt;=L51,F51&gt;=L51),USD_EUR*LOOKUP(IF(J51="",F51,J51),{0,1,10,25,100,250,1000,3000},{0.0,0.163,0.137,0.132,0.109,0.095,0.086,0.084}),"MOQ="&amp;L51),"")</f>
+        <v>0.16227650000000002</v>
+      </c>
+      <c r="L51" s="21">
+        <v>1</v>
+      </c>
+      <c r="M51" s="23">
+        <f>IFERROR(IF(J51="",F51,J51)*K51,"")</f>
+        <v>1.9473</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="21" t="s">
         <v>214</v>
       </c>
@@ -4912,14 +7942,32 @@
       </c>
       <c r="G52" s="22">
         <f>IF(MIN(K52)&lt;&gt;0,MIN(K52),"")</f>
-        <v/>
+        <v>0.5294715000000001</v>
       </c>
       <c r="H52" s="23">
         <f>IF(AND(ISNUMBER(F52),ISNUMBER(G52)),F52*G52,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1.0589</v>
+      </c>
+      <c r="I52" s="21">
+        <v>151277</v>
+      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22">
+        <f>IFERROR(IF(OR(J52&gt;=L52,F52&gt;=L52),USD_EUR*LOOKUP(IF(J52="",F52,J52),{0,1,10,25,100,250,1000,2500,4500,9000},{0.0,0.447,0.377,0.331,0.293,0.263,0.215,0.174,0.165,0.157}),"MOQ="&amp;L52),"")</f>
+        <v>0.5294715000000001</v>
+      </c>
+      <c r="L52" s="21">
+        <v>1</v>
+      </c>
+      <c r="M52" s="23">
+        <f>IFERROR(IF(J52="",F52,J52)*K52,"")</f>
+        <v>1.0589</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="21" t="s">
         <v>219</v>
       </c>
@@ -4941,14 +7989,32 @@
       </c>
       <c r="G53" s="22">
         <f>IF(MIN(K53)&lt;&gt;0,MIN(K53),"")</f>
-        <v/>
+        <v>0.244007</v>
       </c>
       <c r="H53" s="23">
         <f>IF(AND(ISNUMBER(F53),ISNUMBER(G53)),F53*G53,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.488</v>
+      </c>
+      <c r="I53" s="21">
+        <v>18083</v>
+      </c>
+      <c r="J53" s="21"/>
+      <c r="K53" s="22">
+        <f>IFERROR(IF(OR(J53&gt;=L53,F53&gt;=L53),USD_EUR*LOOKUP(IF(J53="",F53,J53),{0,1,10,100,250,1000,3000},{0.0,0.206,0.177,0.151,0.134,0.126,0.124}),"MOQ="&amp;L53),"")</f>
+        <v>0.244007</v>
+      </c>
+      <c r="L53" s="21">
+        <v>1</v>
+      </c>
+      <c r="M53" s="23">
+        <f>IFERROR(IF(J53="",F53,J53)*K53,"")</f>
+        <v>0.488</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="21" t="s">
         <v>225</v>
       </c>
@@ -4970,14 +8036,32 @@
       </c>
       <c r="G54" s="22">
         <f>IF(MIN(K54)&lt;&gt;0,MIN(K54),"")</f>
-        <v/>
+        <v>1.3858650000000001</v>
       </c>
       <c r="H54" s="23">
         <f>IF(AND(ISNUMBER(F54),ISNUMBER(G54)),F54*G54,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1.3859</v>
+      </c>
+      <c r="I54" s="21">
+        <v>11268</v>
+      </c>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22">
+        <f>IFERROR(IF(OR(J54&gt;=L54,F54&gt;=L54),USD_EUR*LOOKUP(IF(J54="",F54,J54),{0,1,10,100,500,1000,2000,5000},{0.0,1.17,0.989,0.84,0.75,0.702,0.648,0.627}),"MOQ="&amp;L54),"")</f>
+        <v>1.3858650000000001</v>
+      </c>
+      <c r="L54" s="21">
+        <v>1</v>
+      </c>
+      <c r="M54" s="23">
+        <f>IFERROR(IF(J54="",F54,J54)*K54,"")</f>
+        <v>1.3859</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="21" t="s">
         <v>232</v>
       </c>
@@ -4999,14 +8083,32 @@
       </c>
       <c r="G55" s="22">
         <f>IF(MIN(K55)&lt;&gt;0,MIN(K55),"")</f>
-        <v/>
+        <v>1.20819</v>
       </c>
       <c r="H55" s="23">
         <f>IF(AND(ISNUMBER(F55),ISNUMBER(G55)),F55*G55,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1.2082</v>
+      </c>
+      <c r="I55" s="21">
+        <v>21611</v>
+      </c>
+      <c r="J55" s="21"/>
+      <c r="K55" s="22">
+        <f>IFERROR(IF(OR(J55&gt;=L55,F55&gt;=L55),USD_EUR*LOOKUP(IF(J55="",F55,J55),{0,1,10,25,100,250,500,1000,2500,8000},{0.0,1.02,0.877,0.777,0.74,0.694,0.66,0.593,0.562,0.562}),"MOQ="&amp;L55),"")</f>
+        <v>1.20819</v>
+      </c>
+      <c r="L55" s="21">
+        <v>1</v>
+      </c>
+      <c r="M55" s="23">
+        <f>IFERROR(IF(J55="",F55,J55)*K55,"")</f>
+        <v>1.2082</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="21" t="s">
         <v>239</v>
       </c>
@@ -5035,7 +8137,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="21" t="s">
         <v>245</v>
       </c>
@@ -5064,7 +8166,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="21" t="s">
         <v>251</v>
       </c>
@@ -5093,7 +8195,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="21" t="s">
         <v>254</v>
       </c>
@@ -5122,16 +8224,22 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
+      <c r="B61" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61">
+        <v>1.1845</v>
+      </c>
       <c r="G61" s="14" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="H61" s="16">
         <f>SUM(M61)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="24" t="s">
-        <v>319</v>
+      <c r="I61" s="26" t="s">
+        <v>359</v>
       </c>
       <c r="J61" s="17">
         <f>IFERROR(IF(COUNTIF(J10:J59,"&gt;0")&gt;0,COUNTIF(J10:J59,"&gt;0")&amp;" of "&amp;(ROWS(L10:L59)-COUNTBLANK(L10:L59))&amp;" parts purchased",""),"")</f>
@@ -5142,24 +8250,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="J62" s="28">
+    <row r="62" spans="1:14">
+      <c r="G62" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="J62" s="27">
         <f>CONCATENATE(J113,J114,J115,J116,J117,J118,J119,J120,J121,J122,J123,J124,J125,J126,J127,J128,J129,J130,J131,J132,J133,J134,J135,J136,J137,J138,J139,J140,J141,J142,J143,J144,J145,J146,J147,J148,J149,J150,J151,J152,J153,J154,J155,J156,J157,J158,J159,J160,J161,J162)</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="29" t="s">
-        <v>327</v>
+    <row r="63" spans="1:14">
+      <c r="A63" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="30" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="10:10" ht="30" hidden="1" customHeight="1">
@@ -5422,757 +8532,1255 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>AND(ISBLANK(E10),ISBLANK(M10))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="93">
+      <formula>IF(SUM(I10)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="greaterThan">
+      <formula>SUM(I10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="95" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K10),J10,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="3" priority="96">
+      <formula>AND(ISBLANK(E11),ISBLANK(M11))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="97">
+      <formula>IF(SUM(I11)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="greaterThan">
+      <formula>SUM(I11)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="99" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K11),J11,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>AND(ISBLANK(E12),ISBLANK(M12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="101">
+      <formula>IF(SUM(I12)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="greaterThan">
+      <formula>SUM(I12)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="103" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K12),J12,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="3" priority="104">
+      <formula>AND(ISBLANK(E13),ISBLANK(M13))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="105">
+      <formula>IF(SUM(I13)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="greaterThan">
+      <formula>SUM(I13)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="107" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K13),J13,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="3" priority="108">
+      <formula>AND(ISBLANK(E14),ISBLANK(M14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="109">
+      <formula>IF(SUM(I14)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="greaterThan">
+      <formula>SUM(I14)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="111" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K14),J14,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>AND(ISBLANK(E15),ISBLANK(M15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="113">
+      <formula>IF(SUM(I15)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="greaterThan">
+      <formula>SUM(I15)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="115" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K15),J15,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="3" priority="116">
+      <formula>AND(ISBLANK(E16),ISBLANK(M16))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="117">
+      <formula>IF(SUM(I16)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="greaterThan">
+      <formula>SUM(I16)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="119" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K16),J16,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="3" priority="120">
+      <formula>AND(ISBLANK(E17),ISBLANK(M17))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="121">
+      <formula>IF(SUM(I17)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="greaterThan">
+      <formula>SUM(I17)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="123" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K17),J17,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>AND(ISBLANK(E18),ISBLANK(M18))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="125">
+      <formula>IF(SUM(I18)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="greaterThan">
+      <formula>SUM(I18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="127" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K18),J18,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="3" priority="128">
+      <formula>AND(ISBLANK(E19),ISBLANK(M19))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="129">
+      <formula>IF(SUM(I19)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="130" operator="greaterThan">
+      <formula>SUM(I19)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="131" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K19),J19,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="3" priority="132">
+      <formula>AND(ISBLANK(E20),ISBLANK(M20))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="133">
+      <formula>IF(SUM(I20)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="134" operator="greaterThan">
+      <formula>SUM(I20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="135" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K20),J20,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>AND(ISBLANK(E21),ISBLANK(M21))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="137">
+      <formula>IF(SUM(I21)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="138" operator="greaterThan">
+      <formula>SUM(I21)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="139" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K21),J21,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="3" priority="140">
+      <formula>AND(ISBLANK(E22),ISBLANK(M22))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="141">
+      <formula>IF(SUM(I22)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="142" operator="greaterThan">
+      <formula>SUM(I22)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="143" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K22),J22,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="3" priority="144">
+      <formula>AND(ISBLANK(E23),ISBLANK(M23))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="145">
+      <formula>IF(SUM(I23)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="146" operator="greaterThan">
+      <formula>SUM(I23)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="147" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K23),J23,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>AND(ISBLANK(E24),ISBLANK(M24))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="149">
+      <formula>IF(SUM(I24)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="150" operator="greaterThan">
+      <formula>SUM(I24)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="151" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K24),J24,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="3" priority="152">
+      <formula>AND(ISBLANK(E25),ISBLANK(M25))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="153">
+      <formula>IF(SUM(I25)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="greaterThan">
+      <formula>SUM(I25)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="155" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K25),J25,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="3" priority="156">
+      <formula>AND(ISBLANK(E26),ISBLANK(M26))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="157">
+      <formula>IF(SUM(I26)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="158" operator="greaterThan">
+      <formula>SUM(I26)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="159" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K26),J26,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>AND(ISBLANK(E27),ISBLANK(M27))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="161">
+      <formula>IF(SUM(I27)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="162" operator="greaterThan">
+      <formula>SUM(I27)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="163" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K27),J27,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="3" priority="164">
+      <formula>AND(ISBLANK(E28),ISBLANK(M28))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="165">
+      <formula>IF(SUM(I28)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="greaterThan">
+      <formula>SUM(I28)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="167" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K28),J28,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="3" priority="168">
+      <formula>AND(ISBLANK(E29),ISBLANK(M29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="169">
+      <formula>IF(SUM(I29)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="170" operator="greaterThan">
+      <formula>SUM(I29)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="171" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K29),J29,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>AND(ISBLANK(E30),ISBLANK(M30))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="173">
+      <formula>IF(SUM(I30)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="174" operator="greaterThan">
+      <formula>SUM(I30)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="175" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K30),J30,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="3" priority="176">
+      <formula>AND(ISBLANK(E31),ISBLANK(M31))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="177">
+      <formula>IF(SUM(I31)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="178" operator="greaterThan">
+      <formula>SUM(I31)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="179" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K31),J31,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="3" priority="180">
+      <formula>AND(ISBLANK(E32),ISBLANK(M32))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="181">
+      <formula>IF(SUM(I32)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="182" operator="greaterThan">
+      <formula>SUM(I32)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="183" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K32),J32,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>AND(ISBLANK(E33),ISBLANK(M33))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="185">
+      <formula>IF(SUM(I33)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="greaterThan">
+      <formula>SUM(I33)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="187" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K33),J33,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="3" priority="188">
+      <formula>AND(ISBLANK(E34),ISBLANK(M34))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="189">
+      <formula>IF(SUM(I34)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="190" operator="greaterThan">
+      <formula>SUM(I34)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="191" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K34),J34,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="expression" dxfId="3" priority="192">
+      <formula>AND(ISBLANK(E35),ISBLANK(M35))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="193">
+      <formula>IF(SUM(I35)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="194" operator="greaterThan">
+      <formula>SUM(I35)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="195" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K35),J35,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>AND(ISBLANK(E36),ISBLANK(M36))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="197">
+      <formula>IF(SUM(I36)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="greaterThan">
+      <formula>SUM(I36)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="199" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K36),J36,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="3" priority="200">
+      <formula>AND(ISBLANK(E37),ISBLANK(M37))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="201">
+      <formula>IF(SUM(I37)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="202" operator="greaterThan">
+      <formula>SUM(I37)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="203" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K37),J37,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="3" priority="204">
+      <formula>AND(ISBLANK(E38),ISBLANK(M38))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="205">
+      <formula>IF(SUM(I38)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="greaterThan">
+      <formula>SUM(I38)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="207" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K38),J38,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>AND(ISBLANK(E39),ISBLANK(M39))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="209">
+      <formula>IF(SUM(I39)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="210" operator="greaterThan">
+      <formula>SUM(I39)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="211" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K39),J39,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="expression" dxfId="3" priority="212">
+      <formula>AND(ISBLANK(E40),ISBLANK(M40))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="213">
+      <formula>IF(SUM(I40)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="214" operator="greaterThan">
+      <formula>SUM(I40)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="215" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K40),J40,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="expression" dxfId="3" priority="216">
+      <formula>AND(ISBLANK(E41),ISBLANK(M41))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="217">
+      <formula>IF(SUM(I41)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="218" operator="greaterThan">
+      <formula>SUM(I41)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="219" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K41),J41,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>AND(ISBLANK(E42),ISBLANK(M42))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="221">
+      <formula>IF(SUM(I42)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="222" operator="greaterThan">
+      <formula>SUM(I42)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="223" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K42),J42,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" dxfId="3" priority="224">
+      <formula>AND(ISBLANK(E43),ISBLANK(M43))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="225">
+      <formula>IF(SUM(I43)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="226" operator="greaterThan">
+      <formula>SUM(I43)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="227" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K43),J43,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="3" priority="228">
+      <formula>AND(ISBLANK(E44),ISBLANK(M44))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="229">
+      <formula>IF(SUM(I44)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="230" operator="greaterThan">
+      <formula>SUM(I44)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="231" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K44),J44,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>AND(ISBLANK(E45),ISBLANK(M45))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="233">
+      <formula>IF(SUM(I45)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="234" operator="greaterThan">
+      <formula>SUM(I45)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="235" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K45),J45,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="expression" dxfId="3" priority="236">
+      <formula>AND(ISBLANK(E46),ISBLANK(M46))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="237">
+      <formula>IF(SUM(I46)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="238" operator="greaterThan">
+      <formula>SUM(I46)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="239" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K46),J46,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="3" priority="240">
+      <formula>AND(ISBLANK(E47),ISBLANK(M47))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="241">
+      <formula>IF(SUM(I47)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="242" operator="greaterThan">
+      <formula>SUM(I47)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="243" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K47),J47,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>AND(ISBLANK(E48),ISBLANK(M48))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="245">
+      <formula>IF(SUM(I48)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="246" operator="greaterThan">
+      <formula>SUM(I48)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="247" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K48),J48,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="3" priority="248">
+      <formula>AND(ISBLANK(E49),ISBLANK(M49))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="249">
+      <formula>IF(SUM(I49)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="250" operator="greaterThan">
+      <formula>SUM(I49)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="251" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K49),J49,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="3" priority="252">
+      <formula>AND(ISBLANK(E50),ISBLANK(M50))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="253">
+      <formula>IF(SUM(I50)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="254" operator="greaterThan">
+      <formula>SUM(I50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="255" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K50),J50,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="3" priority="256">
+      <formula>AND(ISBLANK(E51),ISBLANK(M51))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="257">
+      <formula>IF(SUM(I51)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="258" operator="greaterThan">
+      <formula>SUM(I51)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="259" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K51),J51,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="3" priority="260">
+      <formula>AND(ISBLANK(E52),ISBLANK(M52))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="261">
+      <formula>IF(SUM(I52)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="262" operator="greaterThan">
+      <formula>SUM(I52)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="263" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K52),J52,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="expression" dxfId="3" priority="264">
+      <formula>AND(ISBLANK(E53),ISBLANK(M53))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="265">
+      <formula>IF(SUM(I53)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="266" operator="greaterThan">
+      <formula>SUM(I53)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="267" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K53),J53,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="3" priority="268">
+      <formula>AND(ISBLANK(E54),ISBLANK(M54))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="269">
+      <formula>IF(SUM(I54)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="270" operator="greaterThan">
+      <formula>SUM(I54)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="271" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K54),J54,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="3" priority="272">
+      <formula>AND(ISBLANK(E55),ISBLANK(M55))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="273">
+      <formula>IF(SUM(I55)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="274" operator="greaterThan">
+      <formula>SUM(I55)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="275" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K55),J55,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="expression" dxfId="3" priority="276">
+      <formula>AND(ISBLANK(E56),ISBLANK(M56))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="277">
+      <formula>IF(SUM(I56)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="278" operator="greaterThan">
+      <formula>SUM(I56)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="279" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K56),J56,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="expression" dxfId="3" priority="280">
+      <formula>AND(ISBLANK(E57),ISBLANK(M57))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="281">
+      <formula>IF(SUM(I57)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="282" operator="greaterThan">
+      <formula>SUM(I57)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="283" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K57),J57,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" dxfId="3" priority="284">
+      <formula>AND(ISBLANK(E58),ISBLANK(M58))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="285">
+      <formula>IF(SUM(I58)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="286" operator="greaterThan">
+      <formula>SUM(I58)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="287" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K58),J58,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="3" priority="288">
+      <formula>AND(ISBLANK(E59),ISBLANK(M59))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="289">
+      <formula>IF(SUM(I59)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="290" operator="greaterThan">
+      <formula>SUM(I59)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="291" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(K59),J59,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+      <formula>F12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+      <formula>F13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+      <formula>F15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+      <formula>F16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>F17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThan">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
+      <formula>F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThan">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThan">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThan">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThan">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThan">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="lessThan">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThan">
+      <formula>F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThan">
+      <formula>F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="lessThan">
+      <formula>F32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThan">
+      <formula>F33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThan">
+      <formula>F34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="lessThan">
+      <formula>F35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThan">
+      <formula>F36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThan">
+      <formula>F37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThan">
+      <formula>F38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThan">
+      <formula>F39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThan">
+      <formula>F40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThan">
+      <formula>F41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThan">
+      <formula>F42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThan">
+      <formula>F43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThan">
+      <formula>F44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThan">
+      <formula>F45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="lessThan">
+      <formula>F46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="lessThan">
+      <formula>F47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThan">
+      <formula>F48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThan">
+      <formula>F49</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="lessThan">
+      <formula>F50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="lessThan">
+      <formula>F51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="lessThan">
+      <formula>F52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThan">
+      <formula>F53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="lessThan">
+      <formula>F54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThan">
+      <formula>F55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(SUM(I10)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>SUM(I10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K10),J10,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(ISBLANK(E11),ISBLANK(M11))</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(J10)),OR(I10="NonStk",J10&gt;I10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK(J11)),OR(I11="NonStk",J11&gt;I11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>IF(SUM(I11)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
-      <formula>SUM(I11)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K11),J11,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(ISBLANK(E12),ISBLANK(M12))</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(J12)),OR(I12="NonStk",J12&gt;I12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(NOT(ISBLANK(J13)),OR(I13="NonStk",J13&gt;I13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>IF(SUM(I12)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="greaterThan">
-      <formula>SUM(I12)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K12),J12,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND(ISBLANK(E13),ISBLANK(M13))</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(J15)),OR(I15="NonStk",J15&gt;I15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(NOT(ISBLANK(J16)),OR(I16="NonStk",J16&gt;I16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>IF(SUM(I13)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
-      <formula>SUM(I13)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K13),J13,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND(ISBLANK(E14),ISBLANK(M14))</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(J17)),OR(I17="NonStk",J17&gt;I17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>AND(NOT(ISBLANK(J18)),OR(I18="NonStk",J18&gt;I18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="expression" dxfId="1" priority="18">
-      <formula>IF(SUM(I14)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
-      <formula>SUM(I14)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K14),J14,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>AND(ISBLANK(E15),ISBLANK(M15))</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(J19)),OR(I19="NonStk",J19&gt;I19))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AND(NOT(ISBLANK(J20)),OR(I20="NonStk",J20&gt;I20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
     <cfRule type="expression" dxfId="1" priority="22">
-      <formula>IF(SUM(I15)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="greaterThan">
-      <formula>SUM(I15)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K15),J15,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>AND(ISBLANK(E16),ISBLANK(M16))</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(J21)),OR(I21="NonStk",J21&gt;I21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>AND(NOT(ISBLANK(J22)),OR(I22="NonStk",J22&gt;I22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="expression" dxfId="1" priority="26">
-      <formula>IF(SUM(I16)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="greaterThan">
-      <formula>SUM(I16)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K16),J16,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND(ISBLANK(E17),ISBLANK(M17))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30">
-      <formula>IF(SUM(I17)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="31" operator="greaterThan">
-      <formula>SUM(I17)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="32" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K17),J17,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="0" priority="33">
-      <formula>AND(ISBLANK(E18),ISBLANK(M18))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
-      <formula>IF(SUM(I18)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThan">
-      <formula>SUM(I18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K18),J18,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="0" priority="37">
-      <formula>AND(ISBLANK(E19),ISBLANK(M19))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="38">
-      <formula>IF(SUM(I19)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="39" operator="greaterThan">
-      <formula>SUM(I19)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="40" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K19),J19,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="0" priority="41">
-      <formula>AND(ISBLANK(E20),ISBLANK(M20))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="42">
-      <formula>IF(SUM(I20)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="43" operator="greaterThan">
-      <formula>SUM(I20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="44" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K20),J20,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="0" priority="45">
-      <formula>AND(ISBLANK(E21),ISBLANK(M21))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="46">
-      <formula>IF(SUM(I21)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="47" operator="greaterThan">
-      <formula>SUM(I21)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="48" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K21),J21,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="0" priority="49">
-      <formula>AND(ISBLANK(E22),ISBLANK(M22))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
-      <formula>IF(SUM(I22)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="51" operator="greaterThan">
-      <formula>SUM(I22)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="52" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K22),J22,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="0" priority="53">
-      <formula>AND(ISBLANK(E23),ISBLANK(M23))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="54">
-      <formula>IF(SUM(I23)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="55" operator="greaterThan">
-      <formula>SUM(I23)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="56" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K23),J23,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="0" priority="57">
-      <formula>AND(ISBLANK(E24),ISBLANK(M24))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="58">
-      <formula>IF(SUM(I24)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="59" operator="greaterThan">
-      <formula>SUM(I24)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="60" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K24),J24,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="0" priority="61">
-      <formula>AND(ISBLANK(E25),ISBLANK(M25))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62">
-      <formula>IF(SUM(I25)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="63" operator="greaterThan">
-      <formula>SUM(I25)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="64" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K25),J25,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="0" priority="65">
-      <formula>AND(ISBLANK(E26),ISBLANK(M26))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
-      <formula>IF(SUM(I26)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="67" operator="greaterThan">
-      <formula>SUM(I26)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="68" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K26),J26,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="0" priority="69">
-      <formula>AND(ISBLANK(E27),ISBLANK(M27))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="70">
-      <formula>IF(SUM(I27)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="71" operator="greaterThan">
-      <formula>SUM(I27)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="72" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K27),J27,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="0" priority="73">
-      <formula>AND(ISBLANK(E28),ISBLANK(M28))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74">
-      <formula>IF(SUM(I28)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="75" operator="greaterThan">
-      <formula>SUM(I28)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="76" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K28),J28,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="0" priority="77">
-      <formula>AND(ISBLANK(E29),ISBLANK(M29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="78">
-      <formula>IF(SUM(I29)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="79" operator="greaterThan">
-      <formula>SUM(I29)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="80" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K29),J29,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="0" priority="81">
-      <formula>AND(ISBLANK(E30),ISBLANK(M30))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="82">
-      <formula>IF(SUM(I30)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="83" operator="greaterThan">
-      <formula>SUM(I30)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="84" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K30),J30,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="0" priority="85">
-      <formula>AND(ISBLANK(E31),ISBLANK(M31))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="86">
-      <formula>IF(SUM(I31)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="87" operator="greaterThan">
-      <formula>SUM(I31)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="88" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K31),J31,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="0" priority="89">
-      <formula>AND(ISBLANK(E32),ISBLANK(M32))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
-      <formula>IF(SUM(I32)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="91" operator="greaterThan">
-      <formula>SUM(I32)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="92" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K32),J32,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="0" priority="93">
-      <formula>AND(ISBLANK(E33),ISBLANK(M33))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="94">
-      <formula>IF(SUM(I33)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="95" operator="greaterThan">
-      <formula>SUM(I33)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="96" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K33),J33,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="0" priority="97">
-      <formula>AND(ISBLANK(E34),ISBLANK(M34))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="98">
-      <formula>IF(SUM(I34)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="greaterThan">
-      <formula>SUM(I34)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="100" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K34),J34,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="0" priority="101">
-      <formula>AND(ISBLANK(E35),ISBLANK(M35))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
-      <formula>IF(SUM(I35)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="103" operator="greaterThan">
-      <formula>SUM(I35)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="104" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K35),J35,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="0" priority="105">
-      <formula>AND(ISBLANK(E36),ISBLANK(M36))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="106">
-      <formula>IF(SUM(I36)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="107" operator="greaterThan">
-      <formula>SUM(I36)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="108" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K36),J36,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="0" priority="109">
-      <formula>AND(ISBLANK(E37),ISBLANK(M37))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="110">
-      <formula>IF(SUM(I37)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="111" operator="greaterThan">
-      <formula>SUM(I37)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="112" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K37),J37,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="0" priority="113">
-      <formula>AND(ISBLANK(E38),ISBLANK(M38))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="114">
-      <formula>IF(SUM(I38)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="115" operator="greaterThan">
-      <formula>SUM(I38)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="116" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K38),J38,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="0" priority="117">
-      <formula>AND(ISBLANK(E39),ISBLANK(M39))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="118">
-      <formula>IF(SUM(I39)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="119" operator="greaterThan">
-      <formula>SUM(I39)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="120" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K39),J39,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="0" priority="121">
-      <formula>AND(ISBLANK(E40),ISBLANK(M40))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="122">
-      <formula>IF(SUM(I40)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="123" operator="greaterThan">
-      <formula>SUM(I40)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="124" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K40),J40,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="0" priority="125">
-      <formula>AND(ISBLANK(E41),ISBLANK(M41))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="126">
-      <formula>IF(SUM(I41)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="127" operator="greaterThan">
-      <formula>SUM(I41)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="128" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K41),J41,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="0" priority="129">
-      <formula>AND(ISBLANK(E42),ISBLANK(M42))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="130">
-      <formula>IF(SUM(I42)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="131" operator="greaterThan">
-      <formula>SUM(I42)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="132" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K42),J42,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="0" priority="133">
-      <formula>AND(ISBLANK(E43),ISBLANK(M43))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="134">
-      <formula>IF(SUM(I43)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="135" operator="greaterThan">
-      <formula>SUM(I43)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="136" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K43),J43,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="0" priority="137">
-      <formula>AND(ISBLANK(E44),ISBLANK(M44))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="138">
-      <formula>IF(SUM(I44)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="139" operator="greaterThan">
-      <formula>SUM(I44)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="140" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K44),J44,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="0" priority="141">
-      <formula>AND(ISBLANK(E45),ISBLANK(M45))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="142">
-      <formula>IF(SUM(I45)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="143" operator="greaterThan">
-      <formula>SUM(I45)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="144" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K45),J45,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="0" priority="145">
-      <formula>AND(ISBLANK(E46),ISBLANK(M46))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="146">
-      <formula>IF(SUM(I46)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="147" operator="greaterThan">
-      <formula>SUM(I46)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="148" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K46),J46,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="0" priority="149">
-      <formula>AND(ISBLANK(E47),ISBLANK(M47))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="150">
-      <formula>IF(SUM(I47)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="151" operator="greaterThan">
-      <formula>SUM(I47)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="152" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K47),J47,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="0" priority="153">
-      <formula>AND(ISBLANK(E48),ISBLANK(M48))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="154">
-      <formula>IF(SUM(I48)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="155" operator="greaterThan">
-      <formula>SUM(I48)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="156" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K48),J48,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="0" priority="157">
-      <formula>AND(ISBLANK(E49),ISBLANK(M49))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="158">
-      <formula>IF(SUM(I49)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="159" operator="greaterThan">
-      <formula>SUM(I49)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="160" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K49),J49,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="0" priority="161">
-      <formula>AND(ISBLANK(E50),ISBLANK(M50))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="162">
-      <formula>IF(SUM(I50)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="163" operator="greaterThan">
-      <formula>SUM(I50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="164" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K50),J50,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="0" priority="165">
-      <formula>AND(ISBLANK(E51),ISBLANK(M51))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="166">
-      <formula>IF(SUM(I51)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="167" operator="greaterThan">
-      <formula>SUM(I51)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="168" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K51),J51,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="0" priority="169">
-      <formula>AND(ISBLANK(E52),ISBLANK(M52))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="170">
-      <formula>IF(SUM(I52)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="171" operator="greaterThan">
-      <formula>SUM(I52)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="172" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K52),J52,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="0" priority="173">
-      <formula>AND(ISBLANK(E53),ISBLANK(M53))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="174">
-      <formula>IF(SUM(I53)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="175" operator="greaterThan">
-      <formula>SUM(I53)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="176" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K53),J53,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="0" priority="177">
-      <formula>AND(ISBLANK(E54),ISBLANK(M54))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="178">
-      <formula>IF(SUM(I54)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="179" operator="greaterThan">
-      <formula>SUM(I54)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="180" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K54),J54,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="expression" dxfId="0" priority="181">
-      <formula>AND(ISBLANK(E55),ISBLANK(M55))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="182">
-      <formula>IF(SUM(I55)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="183" operator="greaterThan">
-      <formula>SUM(I55)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="184" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K55),J55,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="0" priority="185">
-      <formula>AND(ISBLANK(E56),ISBLANK(M56))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="186">
-      <formula>IF(SUM(I56)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="187" operator="greaterThan">
-      <formula>SUM(I56)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="188" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K56),J56,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="0" priority="189">
-      <formula>AND(ISBLANK(E57),ISBLANK(M57))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="190">
-      <formula>IF(SUM(I57)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="191" operator="greaterThan">
-      <formula>SUM(I57)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="192" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K57),J57,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="0" priority="193">
-      <formula>AND(ISBLANK(E58),ISBLANK(M58))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="194">
-      <formula>IF(SUM(I58)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="greaterThan">
-      <formula>SUM(I58)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="196" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K58),J58,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="0" priority="197">
-      <formula>AND(ISBLANK(E59),ISBLANK(M59))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="198">
-      <formula>IF(SUM(I59)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="199" operator="greaterThan">
-      <formula>SUM(I59)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="200" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(K59),J59,0))</formula>
+      <formula>AND(NOT(ISBLANK(J23)),OR(I23="NonStk",J23&gt;I23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="1" priority="28">
+      <formula>AND(NOT(ISBLANK(J24)),OR(I24="NonStk",J24&gt;I24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="expression" dxfId="2" priority="30">
+      <formula>AND(J25&gt;0,MOD(J25,L25)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>AND(NOT(ISBLANK(J25)),OR(I25="NonStk",J25&gt;I25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="expression" dxfId="1" priority="33">
+      <formula>AND(NOT(ISBLANK(J26)),OR(I26="NonStk",J26&gt;I26))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="expression" dxfId="1" priority="35">
+      <formula>AND(NOT(ISBLANK(J27)),OR(I27="NonStk",J27&gt;I27))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="expression" dxfId="1" priority="37">
+      <formula>AND(NOT(ISBLANK(J28)),OR(I28="NonStk",J28&gt;I28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="1" priority="39">
+      <formula>AND(NOT(ISBLANK(J29)),OR(I29="NonStk",J29&gt;I29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="1" priority="41">
+      <formula>AND(NOT(ISBLANK(J30)),OR(I30="NonStk",J30&gt;I30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="1" priority="43">
+      <formula>AND(NOT(ISBLANK(J31)),OR(I31="NonStk",J31&gt;I31))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>AND(NOT(ISBLANK(J32)),OR(I32="NonStk",J32&gt;I32))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>AND(NOT(ISBLANK(J33)),OR(I33="NonStk",J33&gt;I33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="expression" dxfId="1" priority="49">
+      <formula>AND(NOT(ISBLANK(J34)),OR(I34="NonStk",J34&gt;I34))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="expression" dxfId="1" priority="51">
+      <formula>AND(NOT(ISBLANK(J35)),OR(I35="NonStk",J35&gt;I35))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>AND(NOT(ISBLANK(J36)),OR(I36="NonStk",J36&gt;I36))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="1" priority="55">
+      <formula>AND(NOT(ISBLANK(J37)),OR(I37="NonStk",J37&gt;I37))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="expression" dxfId="1" priority="57">
+      <formula>AND(NOT(ISBLANK(J38)),OR(I38="NonStk",J38&gt;I38))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>AND(NOT(ISBLANK(J39)),OR(I39="NonStk",J39&gt;I39))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="expression" dxfId="1" priority="61">
+      <formula>AND(NOT(ISBLANK(J40)),OR(I40="NonStk",J40&gt;I40))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="expression" dxfId="1" priority="63">
+      <formula>AND(NOT(ISBLANK(J41)),OR(I41="NonStk",J41&gt;I41))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="expression" dxfId="1" priority="65">
+      <formula>AND(NOT(ISBLANK(J42)),OR(I42="NonStk",J42&gt;I42))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="expression" dxfId="1" priority="67">
+      <formula>AND(NOT(ISBLANK(J43)),OR(I43="NonStk",J43&gt;I43))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="expression" dxfId="1" priority="69">
+      <formula>AND(NOT(ISBLANK(J44)),OR(I44="NonStk",J44&gt;I44))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="expression" dxfId="1" priority="71">
+      <formula>AND(NOT(ISBLANK(J45)),OR(I45="NonStk",J45&gt;I45))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="expression" dxfId="1" priority="73">
+      <formula>AND(NOT(ISBLANK(J46)),OR(I46="NonStk",J46&gt;I46))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>AND(NOT(ISBLANK(J47)),OR(I47="NonStk",J47&gt;I47))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="expression" dxfId="1" priority="77">
+      <formula>AND(NOT(ISBLANK(J48)),OR(I48="NonStk",J48&gt;I48))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>AND(NOT(ISBLANK(J49)),OR(I49="NonStk",J49&gt;I49))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="expression" dxfId="1" priority="81">
+      <formula>AND(NOT(ISBLANK(J50)),OR(I50="NonStk",J50&gt;I50))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="expression" dxfId="1" priority="83">
+      <formula>AND(NOT(ISBLANK(J51)),OR(I51="NonStk",J51&gt;I51))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="expression" dxfId="1" priority="85">
+      <formula>AND(NOT(ISBLANK(J52)),OR(I52="NonStk",J52&gt;I52))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="1" priority="87">
+      <formula>AND(NOT(ISBLANK(J53)),OR(I53="NonStk",J53&gt;I53))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="expression" dxfId="1" priority="89">
+      <formula>AND(NOT(ISBLANK(J54)),OR(I54="NonStk",J54&gt;I54))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="expression" dxfId="1" priority="91">
+      <formula>AND(NOT(ISBLANK(J55)),OR(I55="NonStk",J55&gt;I55))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E17" r:id="rId8"/>
-    <hyperlink ref="E18" r:id="rId9"/>
-    <hyperlink ref="E19" r:id="rId10"/>
-    <hyperlink ref="E20" r:id="rId11"/>
-    <hyperlink ref="E21" r:id="rId12"/>
-    <hyperlink ref="E22" r:id="rId13"/>
-    <hyperlink ref="E23" r:id="rId14"/>
-    <hyperlink ref="E24" r:id="rId15"/>
-    <hyperlink ref="E25" r:id="rId16"/>
-    <hyperlink ref="E26" r:id="rId17"/>
-    <hyperlink ref="E27" r:id="rId18"/>
-    <hyperlink ref="E28" r:id="rId19"/>
-    <hyperlink ref="E29" r:id="rId20"/>
-    <hyperlink ref="E30" r:id="rId21"/>
-    <hyperlink ref="E31" r:id="rId22"/>
-    <hyperlink ref="E32" r:id="rId23"/>
-    <hyperlink ref="E33" r:id="rId24"/>
-    <hyperlink ref="E34" r:id="rId25"/>
-    <hyperlink ref="E35" r:id="rId26"/>
-    <hyperlink ref="E36" r:id="rId27"/>
-    <hyperlink ref="E37" r:id="rId28"/>
-    <hyperlink ref="E38" r:id="rId29"/>
-    <hyperlink ref="E39" r:id="rId30"/>
-    <hyperlink ref="E40" r:id="rId31"/>
-    <hyperlink ref="E41" r:id="rId32"/>
-    <hyperlink ref="E42" r:id="rId33"/>
-    <hyperlink ref="E43" r:id="rId34"/>
-    <hyperlink ref="E44" r:id="rId35"/>
-    <hyperlink ref="E45" r:id="rId36"/>
-    <hyperlink ref="E46" r:id="rId37"/>
-    <hyperlink ref="E47" r:id="rId38"/>
-    <hyperlink ref="E48" r:id="rId39"/>
-    <hyperlink ref="E49" r:id="rId40"/>
-    <hyperlink ref="E50" r:id="rId41"/>
-    <hyperlink ref="E51" r:id="rId42"/>
-    <hyperlink ref="E52" r:id="rId43"/>
-    <hyperlink ref="E54" r:id="rId44"/>
-    <hyperlink ref="E55" r:id="rId45"/>
-    <hyperlink ref="E56" r:id="rId46"/>
-    <hyperlink ref="E59" r:id="rId47"/>
-    <hyperlink ref="I61" r:id="rId48"/>
+    <hyperlink ref="N10" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="N11" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="N12" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="N13" r:id="rId8"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="N15" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="N16" r:id="rId13"/>
+    <hyperlink ref="E17" r:id="rId14"/>
+    <hyperlink ref="N17" r:id="rId15"/>
+    <hyperlink ref="E18" r:id="rId16"/>
+    <hyperlink ref="N18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="N19" r:id="rId19"/>
+    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="N20" r:id="rId21"/>
+    <hyperlink ref="E21" r:id="rId22"/>
+    <hyperlink ref="N21" r:id="rId23"/>
+    <hyperlink ref="E22" r:id="rId24"/>
+    <hyperlink ref="N22" r:id="rId25"/>
+    <hyperlink ref="E23" r:id="rId26"/>
+    <hyperlink ref="N23" r:id="rId27"/>
+    <hyperlink ref="E24" r:id="rId28"/>
+    <hyperlink ref="N24" r:id="rId29"/>
+    <hyperlink ref="E25" r:id="rId30"/>
+    <hyperlink ref="N25" r:id="rId31"/>
+    <hyperlink ref="E26" r:id="rId32"/>
+    <hyperlink ref="N26" r:id="rId33"/>
+    <hyperlink ref="E27" r:id="rId34"/>
+    <hyperlink ref="N27" r:id="rId35"/>
+    <hyperlink ref="E28" r:id="rId36"/>
+    <hyperlink ref="N28" r:id="rId37"/>
+    <hyperlink ref="E29" r:id="rId38"/>
+    <hyperlink ref="N29" r:id="rId39"/>
+    <hyperlink ref="E30" r:id="rId40"/>
+    <hyperlink ref="N30" r:id="rId41"/>
+    <hyperlink ref="E31" r:id="rId42"/>
+    <hyperlink ref="N31" r:id="rId43"/>
+    <hyperlink ref="E32" r:id="rId44"/>
+    <hyperlink ref="N32" r:id="rId45"/>
+    <hyperlink ref="E33" r:id="rId46"/>
+    <hyperlink ref="N33" r:id="rId47"/>
+    <hyperlink ref="E34" r:id="rId48"/>
+    <hyperlink ref="N34" r:id="rId49"/>
+    <hyperlink ref="E35" r:id="rId50"/>
+    <hyperlink ref="N35" r:id="rId51"/>
+    <hyperlink ref="E36" r:id="rId52"/>
+    <hyperlink ref="N36" r:id="rId53"/>
+    <hyperlink ref="E37" r:id="rId54"/>
+    <hyperlink ref="N37" r:id="rId55"/>
+    <hyperlink ref="E38" r:id="rId56"/>
+    <hyperlink ref="N38" r:id="rId57"/>
+    <hyperlink ref="E39" r:id="rId58"/>
+    <hyperlink ref="N39" r:id="rId59"/>
+    <hyperlink ref="E40" r:id="rId60"/>
+    <hyperlink ref="N40" r:id="rId61"/>
+    <hyperlink ref="E41" r:id="rId62"/>
+    <hyperlink ref="N41" r:id="rId63"/>
+    <hyperlink ref="E42" r:id="rId64"/>
+    <hyperlink ref="N42" r:id="rId65"/>
+    <hyperlink ref="E43" r:id="rId66"/>
+    <hyperlink ref="N43" r:id="rId67"/>
+    <hyperlink ref="E44" r:id="rId68"/>
+    <hyperlink ref="N44" r:id="rId69"/>
+    <hyperlink ref="E45" r:id="rId70"/>
+    <hyperlink ref="N45" r:id="rId71"/>
+    <hyperlink ref="E46" r:id="rId72"/>
+    <hyperlink ref="N46" r:id="rId73"/>
+    <hyperlink ref="E47" r:id="rId74"/>
+    <hyperlink ref="N47" r:id="rId75"/>
+    <hyperlink ref="E48" r:id="rId76"/>
+    <hyperlink ref="N48" r:id="rId77"/>
+    <hyperlink ref="E49" r:id="rId78"/>
+    <hyperlink ref="N49" r:id="rId79"/>
+    <hyperlink ref="E50" r:id="rId80"/>
+    <hyperlink ref="N50" r:id="rId81"/>
+    <hyperlink ref="E51" r:id="rId82"/>
+    <hyperlink ref="N51" r:id="rId83"/>
+    <hyperlink ref="E52" r:id="rId84"/>
+    <hyperlink ref="N52" r:id="rId85"/>
+    <hyperlink ref="N53" r:id="rId86"/>
+    <hyperlink ref="E54" r:id="rId87"/>
+    <hyperlink ref="N54" r:id="rId88"/>
+    <hyperlink ref="E55" r:id="rId89"/>
+    <hyperlink ref="N55" r:id="rId90"/>
+    <hyperlink ref="E56" r:id="rId91"/>
+    <hyperlink ref="E59" r:id="rId92"/>
+    <hyperlink ref="I61" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId49"/>
+  <legacyDrawing r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -6189,77 +9797,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="11" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="30" t="s">
-        <v>334</v>
+      <c r="A8" s="31" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="31" t="s">
-        <v>335</v>
+      <c r="A9" s="32" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
-        <v>336</v>
+      <c r="A10" s="33" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="33" t="s">
-        <v>337</v>
+      <c r="A11" s="34" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="34" t="s">
-        <v>338</v>
+      <c r="A12" s="35" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
-        <v>339</v>
+      <c r="A13" s="36" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="36" t="s">
-        <v>340</v>
+      <c r="A14" s="37" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="37" t="s">
-        <v>341</v>
+      <c r="A15" s="38" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="38" t="s">
-        <v>342</v>
+      <c r="A16" s="24" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
